--- a/P0003/09_FICHAS/N3-FD-General.xlsx
+++ b/P0003/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0003\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7134CE4-AA52-45D0-BAF8-3B20BC2431B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -96,18 +107,18 @@
     <t>Este archivo contiene los resultados obtenidos con el software HEC-RAS referente a las profundidades máximas del agua que se registraron en La Mojana para la alternativa 1. Se encuentra en formato raster y poseen una resolución de 5 metros</t>
   </si>
   <si>
-    <t>Raster</t>
+    <t>Capa cartográfica</t>
   </si>
   <si>
     <t>tif</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Al archivo se le debe ajustar la escala de colores y el rango de valores, ya que por defecto genera escala de grises y presenta una profundidad máxima de 233 m y mínima de 0 m</t>
   </si>
   <si>
-    <t>Profundidad, Inundación, La Mojana, Alternativa de intervención, Mancha de inundación, Extensión de inundación, salida modelo hidrodinámico, Integral</t>
-  </si>
-  <si>
     <t>R0002</t>
   </si>
   <si>
@@ -123,9 +134,6 @@
     <t>Al archivo se le debe ajustar la escala de colores debido a que por defecto genera escala de grises</t>
   </si>
   <si>
-    <t>Velocidad, Inundación, La Mojana, Alternativa de intervención, Mancha de inundación, Extensión de inundación, Integral</t>
-  </si>
-  <si>
     <t>R0003</t>
   </si>
   <si>
@@ -141,32 +149,82 @@
     <t xml:space="preserve">Al archivo se le debe ajustar la escala de colores debido a que por defecto genera escala de grises. Posee un valor de elevación máxima de 1047.74 msnm y mínima de 0 m.s.n.m. </t>
   </si>
   <si>
-    <t>Topografía, MDT, La Mojana, Integral, Elevación, Terreno</t>
-  </si>
-  <si>
-    <t>Capa cartográfica</t>
-  </si>
-  <si>
-    <t>MEDIO ABIÓTICO</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>DESCONOCIDO</t>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>ECOSISTEMAS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/4-RIESGO/Ayapel/TOMO C/Información PDF_Diagnostico/General/ECOSISTEMAS.pdf</t>
+  </si>
+  <si>
+    <t>Plan básico de ordenamiento territorial municipio de Ayapel</t>
+  </si>
+  <si>
+    <t>Documento cartográfico correspondiente a los tipos de ecosistemas (bosque húmedo, ciénagas, trasformados y vegetación baja), dentro del marco del ajuste y actualización del Plan Básico de Ordenamiento territorial PBOT del municipio de Ayapel - Córdoba (2013 - 2027).</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El mapa brinda información biótica importante para el municipio de Ayapel</t>
+  </si>
+  <si>
+    <t>Ordenamiento territorial, ecosistemas, ciénagas, bosque húmedo, zonificación, coberturas, Ayapel, ecosistemas transformados, vegetación baja.</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>ZONIFICACIÓN_AMBIENTAL</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/4-RIESGO/Ayapel/TOMO C/Información PDF_Diagnostico/General/ZONIFICACIÓN_AMBIENTAL.pdf</t>
+  </si>
+  <si>
+    <t>Documento cartográfico correspondiente a zonificación ambiental, dentro del marco del ajuste y actualización del Plan Básico de Ordenamiento territorial PBOT del municipio de Ayapel - Córdoba (2013 - 2027), a escala 1:100.000.</t>
+  </si>
+  <si>
+    <t>Zonificación ambiental, ecosistemas, coberturas, ordenamiento territorial, zonas urbanas, áreas de prevención, áreas de recuperación ambiental, sistemas agrícolas, sistemas productivos, Ayapel.</t>
+  </si>
+  <si>
+    <t>Profundidad, inundación, La Mojana, alternativa de intervención, mancha de inundación, extensión de inundación, salida modelo hidrodinámico.</t>
+  </si>
+  <si>
+    <t>Velocidad, inundación, La Mojana, alternativa de intervención, mancha de inundación, extensión de inundación.</t>
+  </si>
+  <si>
+    <t>Topografía, MDT, La Mojana, elevación, terreno.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,13 +258,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,15 +563,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -571,31 +652,31 @@
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -621,31 +702,31 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
+      <c r="P3" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -653,13 +734,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>2018</v>
@@ -668,31 +749,131 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/P0003/09_FICHAS/N3-FD-General.xlsx
+++ b/P0003/09_FICHAS/N3-FD-General.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DDC8D3-597F-43A4-A605-1307169EA5AD}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7494286-323D-425C-BC59-8586ADCA1621}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$636</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5134,7 +5137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5150,13 +5153,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5439,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P637"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H556" sqref="H556"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -8976,7 +8977,7 @@
       <c r="G71" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="13" t="s">
         <v>326</v>
       </c>
       <c r="I71" s="12" t="s">
@@ -10076,7 +10077,7 @@
       <c r="G93" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" s="8" t="s">
         <v>403</v>
       </c>
       <c r="I93" s="12" t="s">
@@ -10126,7 +10127,7 @@
       <c r="G94" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="13" t="s">
         <v>406</v>
       </c>
       <c r="I94" s="12" t="s">
@@ -10176,7 +10177,7 @@
       <c r="G95" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="8" t="s">
         <v>410</v>
       </c>
       <c r="I95" s="12" t="s">
@@ -10226,7 +10227,7 @@
       <c r="G96" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="8" t="s">
         <v>413</v>
       </c>
       <c r="I96" s="12" t="s">
@@ -10276,7 +10277,7 @@
       <c r="G97" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="H97" s="13" t="s">
         <v>417</v>
       </c>
       <c r="I97" s="12" t="s">
@@ -10326,7 +10327,7 @@
       <c r="G98" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="13" t="s">
         <v>420</v>
       </c>
       <c r="I98" s="12" t="s">
@@ -10376,7 +10377,7 @@
       <c r="G99" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" s="13" t="s">
         <v>423</v>
       </c>
       <c r="I99" s="12" t="s">
@@ -10426,7 +10427,7 @@
       <c r="G100" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" s="13" t="s">
         <v>426</v>
       </c>
       <c r="I100" s="12" t="s">
@@ -10476,7 +10477,7 @@
       <c r="G101" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H101" s="15" t="s">
+      <c r="H101" s="13" t="s">
         <v>429</v>
       </c>
       <c r="I101" s="12" t="s">
@@ -10526,7 +10527,7 @@
       <c r="G102" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" s="13" t="s">
         <v>432</v>
       </c>
       <c r="I102" s="12" t="s">
@@ -10576,7 +10577,7 @@
       <c r="G103" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" s="13" t="s">
         <v>436</v>
       </c>
       <c r="I103" s="12" t="s">
@@ -10626,7 +10627,7 @@
       <c r="G104" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="H104" s="8" t="s">
         <v>440</v>
       </c>
       <c r="I104" s="12" t="s">
@@ -10676,7 +10677,7 @@
       <c r="G105" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="13" t="s">
         <v>443</v>
       </c>
       <c r="I105" s="12" t="s">
@@ -10726,7 +10727,7 @@
       <c r="G106" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" s="13" t="s">
         <v>446</v>
       </c>
       <c r="I106" s="12" t="s">
@@ -10776,7 +10777,7 @@
       <c r="G107" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" s="13" t="s">
         <v>449</v>
       </c>
       <c r="I107" s="12" t="s">
@@ -10826,7 +10827,7 @@
       <c r="G108" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H108" s="16" t="s">
+      <c r="H108" s="8" t="s">
         <v>452</v>
       </c>
       <c r="I108" s="12" t="s">
@@ -10876,7 +10877,7 @@
       <c r="G109" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" s="13" t="s">
         <v>455</v>
       </c>
       <c r="I109" s="12" t="s">
@@ -10926,7 +10927,7 @@
       <c r="G110" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H110" s="16" t="s">
+      <c r="H110" s="8" t="s">
         <v>458</v>
       </c>
       <c r="I110" s="12" t="s">
@@ -10976,7 +10977,7 @@
       <c r="G111" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H111" s="15" t="s">
+      <c r="H111" s="13" t="s">
         <v>461</v>
       </c>
       <c r="I111" s="12" t="s">
@@ -11076,7 +11077,7 @@
       <c r="G113" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="H113" s="8" t="s">
         <v>468</v>
       </c>
       <c r="I113" s="12" t="s">
@@ -11126,7 +11127,7 @@
       <c r="G114" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H114" s="16" t="s">
+      <c r="H114" s="8" t="s">
         <v>472</v>
       </c>
       <c r="I114" s="12" t="s">
@@ -11176,7 +11177,7 @@
       <c r="G115" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H115" s="16" t="s">
+      <c r="H115" s="8" t="s">
         <v>475</v>
       </c>
       <c r="I115" s="12" t="s">
@@ -11226,7 +11227,7 @@
       <c r="G116" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="8" t="s">
         <v>478</v>
       </c>
       <c r="I116" s="12" t="s">
@@ -11276,7 +11277,7 @@
       <c r="G117" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H117" s="16" t="s">
+      <c r="H117" s="8" t="s">
         <v>481</v>
       </c>
       <c r="I117" s="12" t="s">
@@ -11326,7 +11327,7 @@
       <c r="G118" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="8" t="s">
         <v>485</v>
       </c>
       <c r="I118" s="12" t="s">
@@ -11376,7 +11377,7 @@
       <c r="G119" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="8" t="s">
         <v>488</v>
       </c>
       <c r="I119" s="12" t="s">
@@ -11426,7 +11427,7 @@
       <c r="G120" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="13" t="s">
         <v>491</v>
       </c>
       <c r="I120" s="12" t="s">
@@ -11476,7 +11477,7 @@
       <c r="G121" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="8" t="s">
         <v>494</v>
       </c>
       <c r="I121" s="12" t="s">
@@ -11526,7 +11527,7 @@
       <c r="G122" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="H122" s="8" t="s">
         <v>497</v>
       </c>
       <c r="I122" s="12" t="s">
@@ -11576,7 +11577,7 @@
       <c r="G123" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="13" t="s">
         <v>500</v>
       </c>
       <c r="I123" s="12" t="s">
@@ -11626,7 +11627,7 @@
       <c r="G124" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H124" s="15" t="s">
+      <c r="H124" s="13" t="s">
         <v>503</v>
       </c>
       <c r="I124" s="12" t="s">
@@ -11676,7 +11677,7 @@
       <c r="G125" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H125" s="15" t="s">
+      <c r="H125" s="13" t="s">
         <v>506</v>
       </c>
       <c r="I125" s="12" t="s">
@@ -11726,7 +11727,7 @@
       <c r="G126" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="H126" s="13" t="s">
         <v>509</v>
       </c>
       <c r="I126" s="12" t="s">
@@ -11776,7 +11777,7 @@
       <c r="G127" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="13" t="s">
         <v>512</v>
       </c>
       <c r="I127" s="12" t="s">
@@ -11826,7 +11827,7 @@
       <c r="G128" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H128" s="15" t="s">
+      <c r="H128" s="13" t="s">
         <v>515</v>
       </c>
       <c r="I128" s="12" t="s">
@@ -11876,7 +11877,7 @@
       <c r="G129" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H129" s="16" t="s">
+      <c r="H129" s="8" t="s">
         <v>518</v>
       </c>
       <c r="I129" s="12" t="s">
@@ -11926,7 +11927,7 @@
       <c r="G130" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="16" t="s">
+      <c r="H130" s="8" t="s">
         <v>215</v>
       </c>
       <c r="I130" s="12" t="s">
@@ -11976,7 +11977,7 @@
       <c r="G131" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="13" t="s">
         <v>524</v>
       </c>
       <c r="I131" s="12" t="s">
@@ -12026,7 +12027,7 @@
       <c r="G132" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="16" t="s">
+      <c r="H132" s="8" t="s">
         <v>527</v>
       </c>
       <c r="I132" s="12" t="s">
@@ -12076,7 +12077,7 @@
       <c r="G133" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H133" s="16" t="s">
+      <c r="H133" s="8" t="s">
         <v>530</v>
       </c>
       <c r="I133" s="12" t="s">
@@ -12126,7 +12127,7 @@
       <c r="G134" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="13" t="s">
         <v>533</v>
       </c>
       <c r="I134" s="12" t="s">
@@ -12176,7 +12177,7 @@
       <c r="G135" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H135" s="15" t="s">
+      <c r="H135" s="13" t="s">
         <v>536</v>
       </c>
       <c r="I135" s="12" t="s">
@@ -12226,7 +12227,7 @@
       <c r="G136" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="13" t="s">
         <v>539</v>
       </c>
       <c r="I136" s="12" t="s">
@@ -12276,7 +12277,7 @@
       <c r="G137" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H137" s="16" t="s">
+      <c r="H137" s="8" t="s">
         <v>542</v>
       </c>
       <c r="I137" s="12" t="s">
@@ -12326,7 +12327,7 @@
       <c r="G138" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H138" s="15" t="s">
+      <c r="H138" s="13" t="s">
         <v>545</v>
       </c>
       <c r="I138" s="12" t="s">
@@ -12376,7 +12377,7 @@
       <c r="G139" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H139" s="15" t="s">
+      <c r="H139" s="13" t="s">
         <v>548</v>
       </c>
       <c r="I139" s="12" t="s">
@@ -12426,7 +12427,7 @@
       <c r="G140" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H140" s="15" t="s">
+      <c r="H140" s="13" t="s">
         <v>551</v>
       </c>
       <c r="I140" s="12" t="s">
@@ -12476,7 +12477,7 @@
       <c r="G141" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="H141" s="8" t="s">
         <v>554</v>
       </c>
       <c r="I141" s="12" t="s">
@@ -12526,7 +12527,7 @@
       <c r="G142" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H142" s="16" t="s">
+      <c r="H142" s="8" t="s">
         <v>557</v>
       </c>
       <c r="I142" s="12" t="s">
@@ -12576,7 +12577,7 @@
       <c r="G143" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H143" s="15" t="s">
+      <c r="H143" s="13" t="s">
         <v>560</v>
       </c>
       <c r="I143" s="12" t="s">
@@ -12626,7 +12627,7 @@
       <c r="G144" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H144" s="15" t="s">
+      <c r="H144" s="13" t="s">
         <v>563</v>
       </c>
       <c r="I144" s="12" t="s">
@@ -12676,7 +12677,7 @@
       <c r="G145" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H145" s="16" t="s">
+      <c r="H145" s="8" t="s">
         <v>566</v>
       </c>
       <c r="I145" s="12" t="s">
@@ -12726,7 +12727,7 @@
       <c r="G146" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H146" s="16" t="s">
+      <c r="H146" s="8" t="s">
         <v>569</v>
       </c>
       <c r="I146" s="12" t="s">
@@ -12776,7 +12777,7 @@
       <c r="G147" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H147" s="16" t="s">
+      <c r="H147" s="8" t="s">
         <v>572</v>
       </c>
       <c r="I147" s="12" t="s">
@@ -12826,7 +12827,7 @@
       <c r="G148" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H148" s="15" t="s">
+      <c r="H148" s="13" t="s">
         <v>575</v>
       </c>
       <c r="I148" s="12" t="s">
@@ -12876,7 +12877,7 @@
       <c r="G149" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H149" s="15" t="s">
+      <c r="H149" s="13" t="s">
         <v>578</v>
       </c>
       <c r="I149" s="12" t="s">
@@ -12926,7 +12927,7 @@
       <c r="G150" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H150" s="19" t="s">
+      <c r="H150" s="17" t="s">
         <v>581</v>
       </c>
       <c r="I150" s="12" t="s">
@@ -12973,10 +12974,10 @@
       <c r="F151" s="11">
         <v>2013</v>
       </c>
-      <c r="G151" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H151" s="17" t="s">
+      <c r="G151" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H151" s="15" t="s">
         <v>584</v>
       </c>
       <c r="I151" s="12" t="s">
@@ -13023,10 +13024,10 @@
       <c r="F152" s="11">
         <v>2013</v>
       </c>
-      <c r="G152" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H152" s="17" t="s">
+      <c r="G152" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H152" s="15" t="s">
         <v>587</v>
       </c>
       <c r="I152" s="12" t="s">
@@ -13073,10 +13074,10 @@
       <c r="F153" s="11">
         <v>2013</v>
       </c>
-      <c r="G153" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H153" s="17" t="s">
+      <c r="G153" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H153" s="15" t="s">
         <v>591</v>
       </c>
       <c r="I153" s="12" t="s">
@@ -13123,10 +13124,10 @@
       <c r="F154" s="11">
         <v>2013</v>
       </c>
-      <c r="G154" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H154" s="17" t="s">
+      <c r="G154" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H154" s="15" t="s">
         <v>293</v>
       </c>
       <c r="I154" s="12" t="s">
@@ -13173,10 +13174,10 @@
       <c r="F155" s="11">
         <v>2013</v>
       </c>
-      <c r="G155" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H155" s="17" t="s">
+      <c r="G155" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H155" s="15" t="s">
         <v>298</v>
       </c>
       <c r="I155" s="12" t="s">
@@ -13223,10 +13224,10 @@
       <c r="F156" s="11">
         <v>2013</v>
       </c>
-      <c r="G156" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H156" s="17" t="s">
+      <c r="G156" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" s="15" t="s">
         <v>303</v>
       </c>
       <c r="I156" s="12" t="s">
@@ -13273,10 +13274,10 @@
       <c r="F157" s="11">
         <v>2013</v>
       </c>
-      <c r="G157" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H157" s="17" t="s">
+      <c r="G157" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H157" s="15" t="s">
         <v>308</v>
       </c>
       <c r="I157" s="12" t="s">
@@ -13323,10 +13324,10 @@
       <c r="F158" s="11">
         <v>2013</v>
       </c>
-      <c r="G158" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H158" s="17" t="s">
+      <c r="G158" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" s="15" t="s">
         <v>313</v>
       </c>
       <c r="I158" s="12" t="s">
@@ -13373,10 +13374,10 @@
       <c r="F159" s="11">
         <v>2013</v>
       </c>
-      <c r="G159" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H159" s="17" t="s">
+      <c r="G159" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" s="15" t="s">
         <v>318</v>
       </c>
       <c r="I159" s="12" t="s">
@@ -13423,10 +13424,10 @@
       <c r="F160" s="11">
         <v>2013</v>
       </c>
-      <c r="G160" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H160" s="17" t="s">
+      <c r="G160" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H160" s="15" t="s">
         <v>322</v>
       </c>
       <c r="I160" s="12" t="s">
@@ -13473,10 +13474,10 @@
       <c r="F161" s="11">
         <v>2013</v>
       </c>
-      <c r="G161" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H161" s="17" t="s">
+      <c r="G161" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H161" s="15" t="s">
         <v>326</v>
       </c>
       <c r="I161" s="12" t="s">
@@ -13523,10 +13524,10 @@
       <c r="F162" s="11">
         <v>2013</v>
       </c>
-      <c r="G162" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H162" s="17" t="s">
+      <c r="G162" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162" s="15" t="s">
         <v>331</v>
       </c>
       <c r="I162" s="12" t="s">
@@ -13573,10 +13574,10 @@
       <c r="F163" s="11">
         <v>2013</v>
       </c>
-      <c r="G163" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H163" s="17" t="s">
+      <c r="G163" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H163" s="15" t="s">
         <v>336</v>
       </c>
       <c r="I163" s="12" t="s">
@@ -13623,10 +13624,10 @@
       <c r="F164" s="11">
         <v>2013</v>
       </c>
-      <c r="G164" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H164" s="17" t="s">
+      <c r="G164" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" s="15" t="s">
         <v>340</v>
       </c>
       <c r="I164" s="12" t="s">
@@ -13673,10 +13674,10 @@
       <c r="F165" s="11">
         <v>2013</v>
       </c>
-      <c r="G165" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H165" s="17" t="s">
+      <c r="G165" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H165" s="15" t="s">
         <v>344</v>
       </c>
       <c r="I165" s="12" t="s">
@@ -13723,10 +13724,10 @@
       <c r="F166" s="11">
         <v>2013</v>
       </c>
-      <c r="G166" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H166" s="17" t="s">
+      <c r="G166" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="15" t="s">
         <v>349</v>
       </c>
       <c r="I166" s="12" t="s">
@@ -13773,10 +13774,10 @@
       <c r="F167" s="11">
         <v>2013</v>
       </c>
-      <c r="G167" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H167" s="17" t="s">
+      <c r="G167" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H167" s="15" t="s">
         <v>620</v>
       </c>
       <c r="I167" s="12" t="s">
@@ -13823,10 +13824,10 @@
       <c r="F168" s="11">
         <v>2013</v>
       </c>
-      <c r="G168" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H168" s="17" t="s">
+      <c r="G168" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" s="15" t="s">
         <v>623</v>
       </c>
       <c r="I168" s="12" t="s">
@@ -13873,10 +13874,10 @@
       <c r="F169" s="11">
         <v>2013</v>
       </c>
-      <c r="G169" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" s="17" t="s">
+      <c r="G169" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H169" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I169" s="12" t="s">
@@ -13923,10 +13924,10 @@
       <c r="F170" s="11">
         <v>2013</v>
       </c>
-      <c r="G170" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" s="17" t="s">
+      <c r="G170" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I170" s="12" t="s">
@@ -13973,10 +13974,10 @@
       <c r="F171" s="11">
         <v>2013</v>
       </c>
-      <c r="G171" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H171" s="17" t="s">
+      <c r="G171" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I171" s="12" t="s">
@@ -14023,10 +14024,10 @@
       <c r="F172" s="11">
         <v>2013</v>
       </c>
-      <c r="G172" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H172" s="17" t="s">
+      <c r="G172" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I172" s="12" t="s">
@@ -14073,10 +14074,10 @@
       <c r="F173" s="11">
         <v>2013</v>
       </c>
-      <c r="G173" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H173" s="17" t="s">
+      <c r="G173" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I173" s="12" t="s">
@@ -14123,10 +14124,10 @@
       <c r="F174" s="11">
         <v>2013</v>
       </c>
-      <c r="G174" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H174" s="17" t="s">
+      <c r="G174" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I174" s="12" t="s">
@@ -14173,10 +14174,10 @@
       <c r="F175" s="11">
         <v>2013</v>
       </c>
-      <c r="G175" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H175" s="17" t="s">
+      <c r="G175" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H175" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I175" s="12" t="s">
@@ -14223,10 +14224,10 @@
       <c r="F176" s="11">
         <v>2013</v>
       </c>
-      <c r="G176" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H176" s="17" t="s">
+      <c r="G176" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H176" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I176" s="12" t="s">
@@ -14273,10 +14274,10 @@
       <c r="F177" s="11">
         <v>2013</v>
       </c>
-      <c r="G177" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H177" s="17" t="s">
+      <c r="G177" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H177" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I177" s="12" t="s">
@@ -14323,10 +14324,10 @@
       <c r="F178" s="11">
         <v>2013</v>
       </c>
-      <c r="G178" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H178" s="17" t="s">
+      <c r="G178" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I178" s="12" t="s">
@@ -14373,10 +14374,10 @@
       <c r="F179" s="11">
         <v>2013</v>
       </c>
-      <c r="G179" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H179" s="17" t="s">
+      <c r="G179" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H179" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I179" s="12" t="s">
@@ -14423,10 +14424,10 @@
       <c r="F180" s="11">
         <v>2013</v>
       </c>
-      <c r="G180" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H180" s="17" t="s">
+      <c r="G180" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I180" s="12" t="s">
@@ -14473,10 +14474,10 @@
       <c r="F181" s="11">
         <v>2013</v>
       </c>
-      <c r="G181" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H181" s="17" t="s">
+      <c r="G181" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H181" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I181" s="12" t="s">
@@ -14523,10 +14524,10 @@
       <c r="F182" s="11">
         <v>2013</v>
       </c>
-      <c r="G182" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H182" s="17" t="s">
+      <c r="G182" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H182" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I182" s="12" t="s">
@@ -14573,10 +14574,10 @@
       <c r="F183" s="11">
         <v>2013</v>
       </c>
-      <c r="G183" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H183" s="17" t="s">
+      <c r="G183" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I183" s="12" t="s">
@@ -14623,10 +14624,10 @@
       <c r="F184" s="11">
         <v>2013</v>
       </c>
-      <c r="G184" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H184" s="17" t="s">
+      <c r="G184" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H184" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I184" s="12" t="s">
@@ -14673,10 +14674,10 @@
       <c r="F185" s="11">
         <v>2013</v>
       </c>
-      <c r="G185" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H185" s="17" t="s">
+      <c r="G185" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H185" s="15" t="s">
         <v>663</v>
       </c>
       <c r="I185" s="12" t="s">
@@ -14723,10 +14724,10 @@
       <c r="F186" s="11">
         <v>2013</v>
       </c>
-      <c r="G186" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H186" s="17" t="s">
+      <c r="G186" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H186" s="15" t="s">
         <v>663</v>
       </c>
       <c r="I186" s="12" t="s">
@@ -14773,10 +14774,10 @@
       <c r="F187" s="11">
         <v>2013</v>
       </c>
-      <c r="G187" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H187" s="17" t="s">
+      <c r="G187" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H187" s="15" t="s">
         <v>663</v>
       </c>
       <c r="I187" s="12" t="s">
@@ -14823,10 +14824,10 @@
       <c r="F188" s="11">
         <v>2013</v>
       </c>
-      <c r="G188" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H188" s="17" t="s">
+      <c r="G188" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H188" s="15" t="s">
         <v>674</v>
       </c>
       <c r="I188" s="12" t="s">
@@ -14873,10 +14874,10 @@
       <c r="F189" s="11">
         <v>2013</v>
       </c>
-      <c r="G189" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H189" s="17" t="s">
+      <c r="G189" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H189" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I189" s="12" t="s">
@@ -14923,10 +14924,10 @@
       <c r="F190" s="11">
         <v>2013</v>
       </c>
-      <c r="G190" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H190" s="17" t="s">
+      <c r="G190" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H190" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I190" s="12" t="s">
@@ -14973,10 +14974,10 @@
       <c r="F191" s="11">
         <v>2013</v>
       </c>
-      <c r="G191" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H191" s="17" t="s">
+      <c r="G191" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H191" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I191" s="12" t="s">
@@ -15023,10 +15024,10 @@
       <c r="F192" s="11">
         <v>2013</v>
       </c>
-      <c r="G192" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H192" s="17" t="s">
+      <c r="G192" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H192" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I192" s="12" t="s">
@@ -15073,10 +15074,10 @@
       <c r="F193" s="11">
         <v>2013</v>
       </c>
-      <c r="G193" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H193" s="17" t="s">
+      <c r="G193" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H193" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I193" s="12" t="s">
@@ -15123,10 +15124,10 @@
       <c r="F194" s="11">
         <v>2013</v>
       </c>
-      <c r="G194" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H194" s="17" t="s">
+      <c r="G194" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H194" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I194" s="12" t="s">
@@ -15173,10 +15174,10 @@
       <c r="F195" s="11">
         <v>2013</v>
       </c>
-      <c r="G195" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H195" s="17" t="s">
+      <c r="G195" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H195" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I195" s="12" t="s">
@@ -15223,10 +15224,10 @@
       <c r="F196" s="11">
         <v>2013</v>
       </c>
-      <c r="G196" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H196" s="17" t="s">
+      <c r="G196" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H196" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I196" s="12" t="s">
@@ -15273,10 +15274,10 @@
       <c r="F197" s="11">
         <v>2013</v>
       </c>
-      <c r="G197" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H197" s="17" t="s">
+      <c r="G197" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H197" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I197" s="12" t="s">
@@ -15323,10 +15324,10 @@
       <c r="F198" s="11">
         <v>2013</v>
       </c>
-      <c r="G198" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H198" s="17" t="s">
+      <c r="G198" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H198" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I198" s="12" t="s">
@@ -15373,10 +15374,10 @@
       <c r="F199" s="11">
         <v>2013</v>
       </c>
-      <c r="G199" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H199" s="17" t="s">
+      <c r="G199" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H199" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I199" s="12" t="s">
@@ -15423,10 +15424,10 @@
       <c r="F200" s="11">
         <v>2013</v>
       </c>
-      <c r="G200" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H200" s="17" t="s">
+      <c r="G200" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H200" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I200" s="12" t="s">
@@ -15473,10 +15474,10 @@
       <c r="F201" s="11">
         <v>2013</v>
       </c>
-      <c r="G201" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H201" s="17" t="s">
+      <c r="G201" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H201" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I201" s="12" t="s">
@@ -15523,10 +15524,10 @@
       <c r="F202" s="11">
         <v>2013</v>
       </c>
-      <c r="G202" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H202" s="17" t="s">
+      <c r="G202" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H202" s="15" t="s">
         <v>663</v>
       </c>
       <c r="I202" s="12" t="s">
@@ -15573,10 +15574,10 @@
       <c r="F203" s="11">
         <v>2013</v>
       </c>
-      <c r="G203" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H203" s="17" t="s">
+      <c r="G203" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H203" s="15" t="s">
         <v>663</v>
       </c>
       <c r="I203" s="12" t="s">
@@ -15623,10 +15624,10 @@
       <c r="F204" s="11">
         <v>2013</v>
       </c>
-      <c r="G204" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H204" s="17" t="s">
+      <c r="G204" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H204" s="15" t="s">
         <v>663</v>
       </c>
       <c r="I204" s="12" t="s">
@@ -15673,10 +15674,10 @@
       <c r="F205" s="11">
         <v>2013</v>
       </c>
-      <c r="G205" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H205" s="17" t="s">
+      <c r="G205" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H205" s="15" t="s">
         <v>674</v>
       </c>
       <c r="I205" s="12" t="s">
@@ -15723,10 +15724,10 @@
       <c r="F206" s="11">
         <v>2013</v>
       </c>
-      <c r="G206" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H206" s="17" t="s">
+      <c r="G206" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H206" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I206" s="12" t="s">
@@ -15773,10 +15774,10 @@
       <c r="F207" s="11">
         <v>2013</v>
       </c>
-      <c r="G207" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H207" s="17" t="s">
+      <c r="G207" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H207" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I207" s="12" t="s">
@@ -15823,10 +15824,10 @@
       <c r="F208" s="11">
         <v>2013</v>
       </c>
-      <c r="G208" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H208" s="17" t="s">
+      <c r="G208" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H208" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I208" s="12" t="s">
@@ -15873,10 +15874,10 @@
       <c r="F209" s="11">
         <v>2013</v>
       </c>
-      <c r="G209" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H209" s="17" t="s">
+      <c r="G209" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H209" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I209" s="12" t="s">
@@ -15923,10 +15924,10 @@
       <c r="F210" s="11">
         <v>2013</v>
       </c>
-      <c r="G210" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H210" s="17" t="s">
+      <c r="G210" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H210" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I210" s="12" t="s">
@@ -15973,10 +15974,10 @@
       <c r="F211" s="11">
         <v>2013</v>
       </c>
-      <c r="G211" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H211" s="17" t="s">
+      <c r="G211" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H211" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I211" s="12" t="s">
@@ -16023,10 +16024,10 @@
       <c r="F212" s="11">
         <v>2013</v>
       </c>
-      <c r="G212" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H212" s="17" t="s">
+      <c r="G212" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H212" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I212" s="12" t="s">
@@ -16073,10 +16074,10 @@
       <c r="F213" s="11">
         <v>2013</v>
       </c>
-      <c r="G213" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H213" s="17" t="s">
+      <c r="G213" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H213" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I213" s="12" t="s">
@@ -16123,10 +16124,10 @@
       <c r="F214" s="11">
         <v>2013</v>
       </c>
-      <c r="G214" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H214" s="17" t="s">
+      <c r="G214" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I214" s="12" t="s">
@@ -16173,10 +16174,10 @@
       <c r="F215" s="11">
         <v>2013</v>
       </c>
-      <c r="G215" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H215" s="17" t="s">
+      <c r="G215" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H215" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I215" s="12" t="s">
@@ -16223,10 +16224,10 @@
       <c r="F216" s="11">
         <v>2013</v>
       </c>
-      <c r="G216" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H216" s="17" t="s">
+      <c r="G216" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H216" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I216" s="12" t="s">
@@ -16273,10 +16274,10 @@
       <c r="F217" s="11">
         <v>2013</v>
       </c>
-      <c r="G217" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H217" s="17" t="s">
+      <c r="G217" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H217" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I217" s="12" t="s">
@@ -16323,10 +16324,10 @@
       <c r="F218" s="11">
         <v>2013</v>
       </c>
-      <c r="G218" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H218" s="17" t="s">
+      <c r="G218" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H218" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I218" s="12" t="s">
@@ -16373,10 +16374,10 @@
       <c r="F219" s="11">
         <v>2013</v>
       </c>
-      <c r="G219" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H219" s="17" t="s">
+      <c r="G219" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H219" s="15" t="s">
         <v>760</v>
       </c>
       <c r="I219" s="12" t="s">
@@ -16423,10 +16424,10 @@
       <c r="F220" s="11">
         <v>2013</v>
       </c>
-      <c r="G220" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H220" s="17" t="s">
+      <c r="G220" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220" s="15" t="s">
         <v>760</v>
       </c>
       <c r="I220" s="12" t="s">
@@ -16473,10 +16474,10 @@
       <c r="F221" s="11">
         <v>2013</v>
       </c>
-      <c r="G221" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H221" s="17" t="s">
+      <c r="G221" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H221" s="15" t="s">
         <v>760</v>
       </c>
       <c r="I221" s="12" t="s">
@@ -16523,10 +16524,10 @@
       <c r="F222" s="11">
         <v>2013</v>
       </c>
-      <c r="G222" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H222" s="17" t="s">
+      <c r="G222" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H222" s="15" t="s">
         <v>767</v>
       </c>
       <c r="I222" s="12" t="s">
@@ -16573,10 +16574,10 @@
       <c r="F223" s="11">
         <v>2013</v>
       </c>
-      <c r="G223" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H223" s="17" t="s">
+      <c r="G223" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H223" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I223" s="12" t="s">
@@ -16623,10 +16624,10 @@
       <c r="F224" s="11">
         <v>2013</v>
       </c>
-      <c r="G224" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H224" s="17" t="s">
+      <c r="G224" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H224" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I224" s="12" t="s">
@@ -16673,10 +16674,10 @@
       <c r="F225" s="11">
         <v>2013</v>
       </c>
-      <c r="G225" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H225" s="17" t="s">
+      <c r="G225" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H225" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I225" s="12" t="s">
@@ -16723,10 +16724,10 @@
       <c r="F226" s="11">
         <v>2013</v>
       </c>
-      <c r="G226" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H226" s="17" t="s">
+      <c r="G226" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H226" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I226" s="12" t="s">
@@ -16773,10 +16774,10 @@
       <c r="F227" s="11">
         <v>2013</v>
       </c>
-      <c r="G227" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H227" s="17" t="s">
+      <c r="G227" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H227" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I227" s="12" t="s">
@@ -16823,10 +16824,10 @@
       <c r="F228" s="11">
         <v>2013</v>
       </c>
-      <c r="G228" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H228" s="17" t="s">
+      <c r="G228" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H228" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I228" s="12" t="s">
@@ -16873,10 +16874,10 @@
       <c r="F229" s="11">
         <v>2013</v>
       </c>
-      <c r="G229" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H229" s="17" t="s">
+      <c r="G229" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H229" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I229" s="12" t="s">
@@ -16923,10 +16924,10 @@
       <c r="F230" s="11">
         <v>2013</v>
       </c>
-      <c r="G230" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H230" s="17" t="s">
+      <c r="G230" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H230" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I230" s="12" t="s">
@@ -16973,10 +16974,10 @@
       <c r="F231" s="11">
         <v>2013</v>
       </c>
-      <c r="G231" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H231" s="17" t="s">
+      <c r="G231" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H231" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I231" s="12" t="s">
@@ -17023,10 +17024,10 @@
       <c r="F232" s="11">
         <v>2013</v>
       </c>
-      <c r="G232" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H232" s="17" t="s">
+      <c r="G232" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H232" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I232" s="12" t="s">
@@ -17073,10 +17074,10 @@
       <c r="F233" s="11">
         <v>2013</v>
       </c>
-      <c r="G233" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H233" s="17" t="s">
+      <c r="G233" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H233" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I233" s="12" t="s">
@@ -17123,10 +17124,10 @@
       <c r="F234" s="11">
         <v>2013</v>
       </c>
-      <c r="G234" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H234" s="17" t="s">
+      <c r="G234" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H234" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I234" s="12" t="s">
@@ -17173,10 +17174,10 @@
       <c r="F235" s="11">
         <v>2013</v>
       </c>
-      <c r="G235" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H235" s="17" t="s">
+      <c r="G235" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H235" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I235" s="12" t="s">
@@ -17223,10 +17224,10 @@
       <c r="F236" s="11">
         <v>2013</v>
       </c>
-      <c r="G236" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H236" s="17" t="s">
+      <c r="G236" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H236" s="15" t="s">
         <v>796</v>
       </c>
       <c r="I236" s="12" t="s">
@@ -17273,10 +17274,10 @@
       <c r="F237" s="11">
         <v>2013</v>
       </c>
-      <c r="G237" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H237" s="17" t="s">
+      <c r="G237" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H237" s="15" t="s">
         <v>796</v>
       </c>
       <c r="I237" s="12" t="s">
@@ -17323,10 +17324,10 @@
       <c r="F238" s="11">
         <v>2013</v>
       </c>
-      <c r="G238" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H238" s="17" t="s">
+      <c r="G238" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H238" s="15" t="s">
         <v>796</v>
       </c>
       <c r="I238" s="12" t="s">
@@ -17373,10 +17374,10 @@
       <c r="F239" s="11">
         <v>2013</v>
       </c>
-      <c r="G239" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H239" s="17" t="s">
+      <c r="G239" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H239" s="15" t="s">
         <v>803</v>
       </c>
       <c r="I239" s="12" t="s">
@@ -17423,10 +17424,10 @@
       <c r="F240" s="11">
         <v>2013</v>
       </c>
-      <c r="G240" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H240" s="17" t="s">
+      <c r="G240" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H240" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I240" s="12" t="s">
@@ -17473,10 +17474,10 @@
       <c r="F241" s="11">
         <v>2013</v>
       </c>
-      <c r="G241" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H241" s="17" t="s">
+      <c r="G241" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H241" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I241" s="12" t="s">
@@ -17523,10 +17524,10 @@
       <c r="F242" s="11">
         <v>2013</v>
       </c>
-      <c r="G242" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H242" s="17" t="s">
+      <c r="G242" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H242" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I242" s="12" t="s">
@@ -17573,10 +17574,10 @@
       <c r="F243" s="11">
         <v>2013</v>
       </c>
-      <c r="G243" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H243" s="17" t="s">
+      <c r="G243" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H243" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I243" s="12" t="s">
@@ -17623,10 +17624,10 @@
       <c r="F244" s="11">
         <v>2013</v>
       </c>
-      <c r="G244" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H244" s="17" t="s">
+      <c r="G244" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H244" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I244" s="12" t="s">
@@ -17673,10 +17674,10 @@
       <c r="F245" s="11">
         <v>2013</v>
       </c>
-      <c r="G245" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H245" s="17" t="s">
+      <c r="G245" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H245" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I245" s="12" t="s">
@@ -17723,10 +17724,10 @@
       <c r="F246" s="11">
         <v>2013</v>
       </c>
-      <c r="G246" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H246" s="17" t="s">
+      <c r="G246" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H246" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I246" s="12" t="s">
@@ -17773,10 +17774,10 @@
       <c r="F247" s="11">
         <v>2013</v>
       </c>
-      <c r="G247" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H247" s="17" t="s">
+      <c r="G247" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H247" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I247" s="12" t="s">
@@ -17823,10 +17824,10 @@
       <c r="F248" s="11">
         <v>2013</v>
       </c>
-      <c r="G248" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H248" s="17" t="s">
+      <c r="G248" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H248" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I248" s="12" t="s">
@@ -17873,10 +17874,10 @@
       <c r="F249" s="11">
         <v>2013</v>
       </c>
-      <c r="G249" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H249" s="17" t="s">
+      <c r="G249" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H249" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I249" s="12" t="s">
@@ -17923,10 +17924,10 @@
       <c r="F250" s="11">
         <v>2013</v>
       </c>
-      <c r="G250" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H250" s="17" t="s">
+      <c r="G250" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H250" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I250" s="12" t="s">
@@ -17973,10 +17974,10 @@
       <c r="F251" s="11">
         <v>2013</v>
       </c>
-      <c r="G251" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H251" s="17" t="s">
+      <c r="G251" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H251" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I251" s="12" t="s">
@@ -18023,10 +18024,10 @@
       <c r="F252" s="11">
         <v>2013</v>
       </c>
-      <c r="G252" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H252" s="17" t="s">
+      <c r="G252" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H252" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I252" s="12" t="s">
@@ -18073,10 +18074,10 @@
       <c r="F253" s="11">
         <v>2013</v>
       </c>
-      <c r="G253" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H253" s="17" t="s">
+      <c r="G253" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H253" s="15" t="s">
         <v>832</v>
       </c>
       <c r="I253" s="12" t="s">
@@ -18123,10 +18124,10 @@
       <c r="F254" s="11">
         <v>2013</v>
       </c>
-      <c r="G254" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H254" s="17" t="s">
+      <c r="G254" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H254" s="15" t="s">
         <v>832</v>
       </c>
       <c r="I254" s="12" t="s">
@@ -18173,10 +18174,10 @@
       <c r="F255" s="11">
         <v>2013</v>
       </c>
-      <c r="G255" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H255" s="17" t="s">
+      <c r="G255" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H255" s="15" t="s">
         <v>832</v>
       </c>
       <c r="I255" s="12" t="s">
@@ -18223,10 +18224,10 @@
       <c r="F256" s="11">
         <v>2013</v>
       </c>
-      <c r="G256" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H256" s="17" t="s">
+      <c r="G256" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H256" s="15" t="s">
         <v>839</v>
       </c>
       <c r="I256" s="12" t="s">
@@ -18273,10 +18274,10 @@
       <c r="F257" s="11">
         <v>2013</v>
       </c>
-      <c r="G257" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H257" s="17" t="s">
+      <c r="G257" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H257" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I257" s="12" t="s">
@@ -18323,10 +18324,10 @@
       <c r="F258" s="11">
         <v>2013</v>
       </c>
-      <c r="G258" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H258" s="17" t="s">
+      <c r="G258" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H258" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I258" s="12" t="s">
@@ -18373,10 +18374,10 @@
       <c r="F259" s="11">
         <v>2013</v>
       </c>
-      <c r="G259" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H259" s="17" t="s">
+      <c r="G259" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H259" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I259" s="12" t="s">
@@ -18423,10 +18424,10 @@
       <c r="F260" s="11">
         <v>2013</v>
       </c>
-      <c r="G260" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H260" s="17" t="s">
+      <c r="G260" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H260" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I260" s="12" t="s">
@@ -18473,10 +18474,10 @@
       <c r="F261" s="11">
         <v>2013</v>
       </c>
-      <c r="G261" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H261" s="17" t="s">
+      <c r="G261" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H261" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I261" s="12" t="s">
@@ -18523,10 +18524,10 @@
       <c r="F262" s="11">
         <v>2013</v>
       </c>
-      <c r="G262" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H262" s="17" t="s">
+      <c r="G262" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H262" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I262" s="12" t="s">
@@ -18573,10 +18574,10 @@
       <c r="F263" s="11">
         <v>2013</v>
       </c>
-      <c r="G263" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H263" s="17" t="s">
+      <c r="G263" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H263" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I263" s="12" t="s">
@@ -18623,10 +18624,10 @@
       <c r="F264" s="11">
         <v>2013</v>
       </c>
-      <c r="G264" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H264" s="20" t="s">
+      <c r="G264" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H264" s="18" t="s">
         <v>706</v>
       </c>
       <c r="I264" s="12" t="s">
@@ -18673,10 +18674,10 @@
       <c r="F265" s="11">
         <v>2013</v>
       </c>
-      <c r="G265" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H265" s="17" t="s">
+      <c r="G265" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H265" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I265" s="12" t="s">
@@ -18723,10 +18724,10 @@
       <c r="F266" s="11">
         <v>2013</v>
       </c>
-      <c r="G266" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H266" s="17" t="s">
+      <c r="G266" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H266" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I266" s="12" t="s">
@@ -18773,10 +18774,10 @@
       <c r="F267" s="11">
         <v>2013</v>
       </c>
-      <c r="G267" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H267" s="17" t="s">
+      <c r="G267" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H267" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I267" s="12" t="s">
@@ -18823,10 +18824,10 @@
       <c r="F268" s="11">
         <v>2013</v>
       </c>
-      <c r="G268" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H268" s="17" t="s">
+      <c r="G268" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H268" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I268" s="12" t="s">
@@ -18873,10 +18874,10 @@
       <c r="F269" s="11">
         <v>2013</v>
       </c>
-      <c r="G269" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H269" s="17" t="s">
+      <c r="G269" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H269" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I269" s="12" t="s">
@@ -18923,10 +18924,10 @@
       <c r="F270" s="11">
         <v>2013</v>
       </c>
-      <c r="G270" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H270" s="17" t="s">
+      <c r="G270" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H270" s="15" t="s">
         <v>868</v>
       </c>
       <c r="I270" s="12" t="s">
@@ -18973,10 +18974,10 @@
       <c r="F271" s="11">
         <v>2013</v>
       </c>
-      <c r="G271" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H271" s="17" t="s">
+      <c r="G271" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H271" s="15" t="s">
         <v>868</v>
       </c>
       <c r="I271" s="12" t="s">
@@ -19023,10 +19024,10 @@
       <c r="F272" s="11">
         <v>2013</v>
       </c>
-      <c r="G272" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H272" s="17" t="s">
+      <c r="G272" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H272" s="15" t="s">
         <v>868</v>
       </c>
       <c r="I272" s="12" t="s">
@@ -19073,10 +19074,10 @@
       <c r="F273" s="11">
         <v>2013</v>
       </c>
-      <c r="G273" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H273" s="17" t="s">
+      <c r="G273" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H273" s="15" t="s">
         <v>875</v>
       </c>
       <c r="I273" s="12" t="s">
@@ -19123,10 +19124,10 @@
       <c r="F274" s="11">
         <v>2013</v>
       </c>
-      <c r="G274" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H274" s="17" t="s">
+      <c r="G274" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H274" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I274" s="12" t="s">
@@ -19173,10 +19174,10 @@
       <c r="F275" s="11">
         <v>2013</v>
       </c>
-      <c r="G275" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H275" s="17" t="s">
+      <c r="G275" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H275" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I275" s="12" t="s">
@@ -19223,10 +19224,10 @@
       <c r="F276" s="11">
         <v>2013</v>
       </c>
-      <c r="G276" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H276" s="17" t="s">
+      <c r="G276" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H276" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I276" s="12" t="s">
@@ -19273,10 +19274,10 @@
       <c r="F277" s="11">
         <v>2013</v>
       </c>
-      <c r="G277" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H277" s="17" t="s">
+      <c r="G277" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H277" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I277" s="12" t="s">
@@ -19323,10 +19324,10 @@
       <c r="F278" s="11">
         <v>2013</v>
       </c>
-      <c r="G278" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H278" s="17" t="s">
+      <c r="G278" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H278" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I278" s="12" t="s">
@@ -19373,10 +19374,10 @@
       <c r="F279" s="11">
         <v>2013</v>
       </c>
-      <c r="G279" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H279" s="17" t="s">
+      <c r="G279" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H279" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I279" s="12" t="s">
@@ -19423,10 +19424,10 @@
       <c r="F280" s="11">
         <v>2013</v>
       </c>
-      <c r="G280" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H280" s="20" t="s">
+      <c r="G280" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H280" s="18" t="s">
         <v>701</v>
       </c>
       <c r="I280" s="12" t="s">
@@ -19473,10 +19474,10 @@
       <c r="F281" s="11">
         <v>2013</v>
       </c>
-      <c r="G281" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H281" s="17" t="s">
+      <c r="G281" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H281" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I281" s="12" t="s">
@@ -19523,10 +19524,10 @@
       <c r="F282" s="11">
         <v>2013</v>
       </c>
-      <c r="G282" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H282" s="17" t="s">
+      <c r="G282" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H282" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I282" s="12" t="s">
@@ -19573,10 +19574,10 @@
       <c r="F283" s="11">
         <v>2013</v>
       </c>
-      <c r="G283" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H283" s="17" t="s">
+      <c r="G283" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H283" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I283" s="12" t="s">
@@ -19623,10 +19624,10 @@
       <c r="F284" s="11">
         <v>2013</v>
       </c>
-      <c r="G284" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H284" s="17" t="s">
+      <c r="G284" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H284" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I284" s="12" t="s">
@@ -19673,10 +19674,10 @@
       <c r="F285" s="11">
         <v>2013</v>
       </c>
-      <c r="G285" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H285" s="17" t="s">
+      <c r="G285" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H285" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I285" s="12" t="s">
@@ -19723,10 +19724,10 @@
       <c r="F286" s="11">
         <v>2013</v>
       </c>
-      <c r="G286" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H286" s="17" t="s">
+      <c r="G286" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H286" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I286" s="12" t="s">
@@ -19773,10 +19774,10 @@
       <c r="F287" s="11">
         <v>2013</v>
       </c>
-      <c r="G287" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H287" s="17" t="s">
+      <c r="G287" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H287" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I287" s="12" t="s">
@@ -19823,10 +19824,10 @@
       <c r="F288" s="11">
         <v>2013</v>
       </c>
-      <c r="G288" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H288" s="17" t="s">
+      <c r="G288" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H288" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I288" s="12" t="s">
@@ -19873,10 +19874,10 @@
       <c r="F289" s="11">
         <v>2013</v>
       </c>
-      <c r="G289" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H289" s="17" t="s">
+      <c r="G289" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H289" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I289" s="12" t="s">
@@ -19923,10 +19924,10 @@
       <c r="F290" s="11">
         <v>2013</v>
       </c>
-      <c r="G290" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H290" s="17" t="s">
+      <c r="G290" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H290" s="15" t="s">
         <v>911</v>
       </c>
       <c r="I290" s="12" t="s">
@@ -19973,10 +19974,10 @@
       <c r="F291" s="11">
         <v>2013</v>
       </c>
-      <c r="G291" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H291" s="17" t="s">
+      <c r="G291" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H291" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I291" s="12" t="s">
@@ -20023,10 +20024,10 @@
       <c r="F292" s="11">
         <v>2013</v>
       </c>
-      <c r="G292" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H292" s="17" t="s">
+      <c r="G292" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H292" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I292" s="12" t="s">
@@ -20073,10 +20074,10 @@
       <c r="F293" s="11">
         <v>2013</v>
       </c>
-      <c r="G293" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H293" s="17" t="s">
+      <c r="G293" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H293" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I293" s="12" t="s">
@@ -20123,10 +20124,10 @@
       <c r="F294" s="11">
         <v>2013</v>
       </c>
-      <c r="G294" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H294" s="17" t="s">
+      <c r="G294" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H294" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I294" s="12" t="s">
@@ -20173,10 +20174,10 @@
       <c r="F295" s="11">
         <v>2013</v>
       </c>
-      <c r="G295" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H295" s="17" t="s">
+      <c r="G295" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H295" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I295" s="12" t="s">
@@ -20223,10 +20224,10 @@
       <c r="F296" s="11">
         <v>2013</v>
       </c>
-      <c r="G296" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H296" s="17" t="s">
+      <c r="G296" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H296" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I296" s="12" t="s">
@@ -20273,10 +20274,10 @@
       <c r="F297" s="11">
         <v>2013</v>
       </c>
-      <c r="G297" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H297" s="17" t="s">
+      <c r="G297" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H297" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I297" s="12" t="s">
@@ -20323,10 +20324,10 @@
       <c r="F298" s="11">
         <v>2013</v>
       </c>
-      <c r="G298" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H298" s="17" t="s">
+      <c r="G298" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H298" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I298" s="12" t="s">
@@ -20373,10 +20374,10 @@
       <c r="F299" s="11">
         <v>2013</v>
       </c>
-      <c r="G299" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H299" s="17" t="s">
+      <c r="G299" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H299" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I299" s="12" t="s">
@@ -20423,10 +20424,10 @@
       <c r="F300" s="11">
         <v>2013</v>
       </c>
-      <c r="G300" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H300" s="17" t="s">
+      <c r="G300" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H300" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I300" s="12" t="s">
@@ -20473,10 +20474,10 @@
       <c r="F301" s="11">
         <v>2013</v>
       </c>
-      <c r="G301" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H301" s="17" t="s">
+      <c r="G301" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H301" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I301" s="12" t="s">
@@ -20523,10 +20524,10 @@
       <c r="F302" s="11">
         <v>2013</v>
       </c>
-      <c r="G302" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H302" s="17" t="s">
+      <c r="G302" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H302" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I302" s="12" t="s">
@@ -20573,10 +20574,10 @@
       <c r="F303" s="11">
         <v>2013</v>
       </c>
-      <c r="G303" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H303" s="17" t="s">
+      <c r="G303" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H303" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I303" s="12" t="s">
@@ -20623,10 +20624,10 @@
       <c r="F304" s="11">
         <v>2013</v>
       </c>
-      <c r="G304" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H304" s="17" t="s">
+      <c r="G304" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H304" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I304" s="12" t="s">
@@ -20673,10 +20674,10 @@
       <c r="F305" s="11">
         <v>2013</v>
       </c>
-      <c r="G305" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H305" s="17" t="s">
+      <c r="G305" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H305" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I305" s="12" t="s">
@@ -20723,10 +20724,10 @@
       <c r="F306" s="11">
         <v>2013</v>
       </c>
-      <c r="G306" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H306" s="17" t="s">
+      <c r="G306" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H306" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I306" s="12" t="s">
@@ -20773,10 +20774,10 @@
       <c r="F307" s="11">
         <v>2013</v>
       </c>
-      <c r="G307" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H307" s="17" t="s">
+      <c r="G307" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H307" s="15" t="s">
         <v>954</v>
       </c>
       <c r="I307" s="12" t="s">
@@ -20823,10 +20824,10 @@
       <c r="F308" s="11">
         <v>2013</v>
       </c>
-      <c r="G308" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H308" s="17" t="s">
+      <c r="G308" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H308" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I308" s="12" t="s">
@@ -20873,10 +20874,10 @@
       <c r="F309" s="11">
         <v>2013</v>
       </c>
-      <c r="G309" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H309" s="17" t="s">
+      <c r="G309" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H309" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I309" s="12" t="s">
@@ -20923,10 +20924,10 @@
       <c r="F310" s="11">
         <v>2013</v>
       </c>
-      <c r="G310" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H310" s="21" t="s">
+      <c r="G310" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H310" s="19" t="s">
         <v>74</v>
       </c>
       <c r="I310" s="12" t="s">
@@ -20973,10 +20974,10 @@
       <c r="F311" s="11">
         <v>2013</v>
       </c>
-      <c r="G311" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H311" s="17" t="s">
+      <c r="G311" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H311" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I311" s="12" t="s">
@@ -21023,10 +21024,10 @@
       <c r="F312" s="11">
         <v>2013</v>
       </c>
-      <c r="G312" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H312" s="17" t="s">
+      <c r="G312" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H312" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I312" s="12" t="s">
@@ -21073,10 +21074,10 @@
       <c r="F313" s="11">
         <v>2013</v>
       </c>
-      <c r="G313" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H313" s="17" t="s">
+      <c r="G313" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H313" s="15" t="s">
         <v>90</v>
       </c>
       <c r="I313" s="12" t="s">
@@ -21123,10 +21124,10 @@
       <c r="F314" s="11">
         <v>2013</v>
       </c>
-      <c r="G314" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H314" s="17" t="s">
+      <c r="G314" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H314" s="15" t="s">
         <v>95</v>
       </c>
       <c r="I314" s="12" t="s">
@@ -21173,10 +21174,10 @@
       <c r="F315" s="11">
         <v>2013</v>
       </c>
-      <c r="G315" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H315" s="17" t="s">
+      <c r="G315" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H315" s="15" t="s">
         <v>99</v>
       </c>
       <c r="I315" s="12" t="s">
@@ -21223,10 +21224,10 @@
       <c r="F316" s="11">
         <v>2013</v>
       </c>
-      <c r="G316" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H316" s="17" t="s">
+      <c r="G316" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H316" s="15" t="s">
         <v>103</v>
       </c>
       <c r="I316" s="12" t="s">
@@ -21273,10 +21274,10 @@
       <c r="F317" s="11">
         <v>2013</v>
       </c>
-      <c r="G317" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H317" s="17" t="s">
+      <c r="G317" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H317" s="15" t="s">
         <v>108</v>
       </c>
       <c r="I317" s="12" t="s">
@@ -21323,10 +21324,10 @@
       <c r="F318" s="11">
         <v>2013</v>
       </c>
-      <c r="G318" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H318" s="17" t="s">
+      <c r="G318" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H318" s="15" t="s">
         <v>113</v>
       </c>
       <c r="I318" s="12" t="s">
@@ -21373,10 +21374,10 @@
       <c r="F319" s="11">
         <v>2013</v>
       </c>
-      <c r="G319" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H319" s="17" t="s">
+      <c r="G319" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H319" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I319" s="12" t="s">
@@ -21423,10 +21424,10 @@
       <c r="F320" s="11">
         <v>2013</v>
       </c>
-      <c r="G320" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H320" s="17" t="s">
+      <c r="G320" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H320" s="15" t="s">
         <v>123</v>
       </c>
       <c r="I320" s="12" t="s">
@@ -21473,10 +21474,10 @@
       <c r="F321" s="11">
         <v>2013</v>
       </c>
-      <c r="G321" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H321" s="17" t="s">
+      <c r="G321" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H321" s="15" t="s">
         <v>127</v>
       </c>
       <c r="I321" s="12" t="s">
@@ -21523,10 +21524,10 @@
       <c r="F322" s="11">
         <v>2013</v>
       </c>
-      <c r="G322" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H322" s="17" t="s">
+      <c r="G322" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H322" s="15" t="s">
         <v>131</v>
       </c>
       <c r="I322" s="12" t="s">
@@ -21573,10 +21574,10 @@
       <c r="F323" s="11">
         <v>2013</v>
       </c>
-      <c r="G323" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H323" s="17" t="s">
+      <c r="G323" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H323" s="15" t="s">
         <v>135</v>
       </c>
       <c r="I323" s="12" t="s">
@@ -21623,10 +21624,10 @@
       <c r="F324" s="11">
         <v>2013</v>
       </c>
-      <c r="G324" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H324" s="17" t="s">
+      <c r="G324" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H324" s="15" t="s">
         <v>141</v>
       </c>
       <c r="I324" s="12" t="s">
@@ -21673,10 +21674,10 @@
       <c r="F325" s="11">
         <v>2013</v>
       </c>
-      <c r="G325" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H325" s="17" t="s">
+      <c r="G325" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H325" s="15" t="s">
         <v>146</v>
       </c>
       <c r="I325" s="12" t="s">
@@ -21723,10 +21724,10 @@
       <c r="F326" s="11">
         <v>2013</v>
       </c>
-      <c r="G326" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H326" s="17" t="s">
+      <c r="G326" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H326" s="15" t="s">
         <v>150</v>
       </c>
       <c r="I326" s="12" t="s">
@@ -21773,10 +21774,10 @@
       <c r="F327" s="11">
         <v>2013</v>
       </c>
-      <c r="G327" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H327" s="17" t="s">
+      <c r="G327" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H327" s="15" t="s">
         <v>155</v>
       </c>
       <c r="I327" s="12" t="s">
@@ -21823,10 +21824,10 @@
       <c r="F328" s="11">
         <v>2013</v>
       </c>
-      <c r="G328" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H328" s="17" t="s">
+      <c r="G328" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H328" s="15" t="s">
         <v>159</v>
       </c>
       <c r="I328" s="12" t="s">
@@ -21873,10 +21874,10 @@
       <c r="F329" s="11">
         <v>2013</v>
       </c>
-      <c r="G329" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H329" s="17" t="s">
+      <c r="G329" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H329" s="15" t="s">
         <v>163</v>
       </c>
       <c r="I329" s="12" t="s">
@@ -21923,10 +21924,10 @@
       <c r="F330" s="11">
         <v>2013</v>
       </c>
-      <c r="G330" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H330" s="17" t="s">
+      <c r="G330" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H330" s="15" t="s">
         <v>167</v>
       </c>
       <c r="I330" s="12" t="s">
@@ -21973,10 +21974,10 @@
       <c r="F331" s="11">
         <v>2013</v>
       </c>
-      <c r="G331" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H331" s="17" t="s">
+      <c r="G331" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H331" s="15" t="s">
         <v>171</v>
       </c>
       <c r="I331" s="12" t="s">
@@ -22023,10 +22024,10 @@
       <c r="F332" s="11">
         <v>2013</v>
       </c>
-      <c r="G332" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H332" s="17" t="s">
+      <c r="G332" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H332" s="15" t="s">
         <v>176</v>
       </c>
       <c r="I332" s="12" t="s">
@@ -22073,10 +22074,10 @@
       <c r="F333" s="11">
         <v>2013</v>
       </c>
-      <c r="G333" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H333" s="17" t="s">
+      <c r="G333" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H333" s="15" t="s">
         <v>180</v>
       </c>
       <c r="I333" s="12" t="s">
@@ -22123,10 +22124,10 @@
       <c r="F334" s="11">
         <v>2013</v>
       </c>
-      <c r="G334" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H334" s="17" t="s">
+      <c r="G334" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H334" s="15" t="s">
         <v>185</v>
       </c>
       <c r="I334" s="12" t="s">
@@ -22173,10 +22174,10 @@
       <c r="F335" s="11">
         <v>2013</v>
       </c>
-      <c r="G335" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H335" s="17" t="s">
+      <c r="G335" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H335" s="15" t="s">
         <v>189</v>
       </c>
       <c r="I335" s="12" t="s">
@@ -22223,10 +22224,10 @@
       <c r="F336" s="11">
         <v>2013</v>
       </c>
-      <c r="G336" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H336" s="17" t="s">
+      <c r="G336" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H336" s="15" t="s">
         <v>194</v>
       </c>
       <c r="I336" s="12" t="s">
@@ -22273,10 +22274,10 @@
       <c r="F337" s="11">
         <v>2013</v>
       </c>
-      <c r="G337" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H337" s="17" t="s">
+      <c r="G337" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H337" s="15" t="s">
         <v>199</v>
       </c>
       <c r="I337" s="12" t="s">
@@ -22323,10 +22324,10 @@
       <c r="F338" s="11">
         <v>2013</v>
       </c>
-      <c r="G338" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H338" s="17" t="s">
+      <c r="G338" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H338" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I338" s="12" t="s">
@@ -22373,10 +22374,10 @@
       <c r="F339" s="11">
         <v>2013</v>
       </c>
-      <c r="G339" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H339" s="17" t="s">
+      <c r="G339" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H339" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I339" s="12" t="s">
@@ -22423,10 +22424,10 @@
       <c r="F340" s="11">
         <v>2013</v>
       </c>
-      <c r="G340" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H340" s="17" t="s">
+      <c r="G340" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H340" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I340" s="12" t="s">
@@ -22473,10 +22474,10 @@
       <c r="F341" s="11">
         <v>2013</v>
       </c>
-      <c r="G341" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H341" s="17" t="s">
+      <c r="G341" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H341" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I341" s="12" t="s">
@@ -22523,10 +22524,10 @@
       <c r="F342" s="11">
         <v>2013</v>
       </c>
-      <c r="G342" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H342" s="17" t="s">
+      <c r="G342" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H342" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I342" s="12" t="s">
@@ -22573,10 +22574,10 @@
       <c r="F343" s="11">
         <v>2013</v>
       </c>
-      <c r="G343" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H343" s="17" t="s">
+      <c r="G343" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H343" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I343" s="12" t="s">
@@ -22623,10 +22624,10 @@
       <c r="F344" s="11">
         <v>2013</v>
       </c>
-      <c r="G344" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H344" s="17" t="s">
+      <c r="G344" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H344" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I344" s="12" t="s">
@@ -22673,10 +22674,10 @@
       <c r="F345" s="11">
         <v>2013</v>
       </c>
-      <c r="G345" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H345" s="17" t="s">
+      <c r="G345" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H345" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I345" s="12" t="s">
@@ -22723,10 +22724,10 @@
       <c r="F346" s="11">
         <v>2013</v>
       </c>
-      <c r="G346" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H346" s="17" t="s">
+      <c r="G346" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H346" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I346" s="12" t="s">
@@ -22773,10 +22774,10 @@
       <c r="F347" s="11">
         <v>2013</v>
       </c>
-      <c r="G347" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H347" s="17" t="s">
+      <c r="G347" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H347" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I347" s="12" t="s">
@@ -22823,10 +22824,10 @@
       <c r="F348" s="11">
         <v>2013</v>
       </c>
-      <c r="G348" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H348" s="17" t="s">
+      <c r="G348" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H348" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I348" s="12" t="s">
@@ -22873,10 +22874,10 @@
       <c r="F349" s="11">
         <v>2013</v>
       </c>
-      <c r="G349" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H349" s="17" t="s">
+      <c r="G349" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H349" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I349" s="12" t="s">
@@ -22923,10 +22924,10 @@
       <c r="F350" s="11">
         <v>2013</v>
       </c>
-      <c r="G350" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H350" s="17" t="s">
+      <c r="G350" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H350" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I350" s="12" t="s">
@@ -22973,10 +22974,10 @@
       <c r="F351" s="11">
         <v>2013</v>
       </c>
-      <c r="G351" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H351" s="17" t="s">
+      <c r="G351" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H351" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I351" s="12" t="s">
@@ -23023,10 +23024,10 @@
       <c r="F352" s="11">
         <v>2013</v>
       </c>
-      <c r="G352" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H352" s="17" t="s">
+      <c r="G352" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H352" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I352" s="12" t="s">
@@ -23073,10 +23074,10 @@
       <c r="F353" s="11">
         <v>2013</v>
       </c>
-      <c r="G353" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H353" s="17" t="s">
+      <c r="G353" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H353" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I353" s="12" t="s">
@@ -23123,10 +23124,10 @@
       <c r="F354" s="11">
         <v>2013</v>
       </c>
-      <c r="G354" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H354" s="17" t="s">
+      <c r="G354" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H354" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I354" s="12" t="s">
@@ -23173,10 +23174,10 @@
       <c r="F355" s="11">
         <v>2013</v>
       </c>
-      <c r="G355" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H355" s="17" t="s">
+      <c r="G355" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H355" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I355" s="12" t="s">
@@ -23223,10 +23224,10 @@
       <c r="F356" s="11">
         <v>2013</v>
       </c>
-      <c r="G356" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H356" s="17" t="s">
+      <c r="G356" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H356" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I356" s="12" t="s">
@@ -23273,10 +23274,10 @@
       <c r="F357" s="11">
         <v>2013</v>
       </c>
-      <c r="G357" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H357" s="17" t="s">
+      <c r="G357" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H357" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I357" s="12" t="s">
@@ -23323,10 +23324,10 @@
       <c r="F358" s="11">
         <v>2013</v>
       </c>
-      <c r="G358" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H358" s="17" t="s">
+      <c r="G358" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H358" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I358" s="12" t="s">
@@ -23373,10 +23374,10 @@
       <c r="F359" s="11">
         <v>2013</v>
       </c>
-      <c r="G359" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H359" s="17" t="s">
+      <c r="G359" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H359" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I359" s="12" t="s">
@@ -23423,10 +23424,10 @@
       <c r="F360" s="11">
         <v>2013</v>
       </c>
-      <c r="G360" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H360" s="17" t="s">
+      <c r="G360" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H360" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I360" s="12" t="s">
@@ -23473,10 +23474,10 @@
       <c r="F361" s="11">
         <v>2013</v>
       </c>
-      <c r="G361" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H361" s="17" t="s">
+      <c r="G361" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H361" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I361" s="12" t="s">
@@ -23523,10 +23524,10 @@
       <c r="F362" s="11">
         <v>2013</v>
       </c>
-      <c r="G362" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H362" s="17" t="s">
+      <c r="G362" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H362" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I362" s="12" t="s">
@@ -23573,10 +23574,10 @@
       <c r="F363" s="11">
         <v>2013</v>
       </c>
-      <c r="G363" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H363" s="17" t="s">
+      <c r="G363" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H363" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I363" s="12" t="s">
@@ -23623,10 +23624,10 @@
       <c r="F364" s="11">
         <v>2013</v>
       </c>
-      <c r="G364" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H364" s="17" t="s">
+      <c r="G364" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H364" s="15" t="s">
         <v>1019</v>
       </c>
       <c r="I364" s="12" t="s">
@@ -23673,10 +23674,10 @@
       <c r="F365" s="11">
         <v>2013</v>
       </c>
-      <c r="G365" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H365" s="17" t="s">
+      <c r="G365" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H365" s="15" t="s">
         <v>203</v>
       </c>
       <c r="I365" s="12" t="s">
@@ -23723,10 +23724,10 @@
       <c r="F366" s="11">
         <v>2013</v>
       </c>
-      <c r="G366" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H366" s="17" t="s">
+      <c r="G366" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H366" s="15" t="s">
         <v>207</v>
       </c>
       <c r="I366" s="12" t="s">
@@ -23773,10 +23774,10 @@
       <c r="F367" s="11">
         <v>2013</v>
       </c>
-      <c r="G367" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H367" s="17" t="s">
+      <c r="G367" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H367" s="15" t="s">
         <v>211</v>
       </c>
       <c r="I367" s="12" t="s">
@@ -23823,10 +23824,10 @@
       <c r="F368" s="11">
         <v>2013</v>
       </c>
-      <c r="G368" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H368" s="17" t="s">
+      <c r="G368" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H368" s="15" t="s">
         <v>215</v>
       </c>
       <c r="I368" s="12" t="s">
@@ -23873,10 +23874,10 @@
       <c r="F369" s="11">
         <v>2013</v>
       </c>
-      <c r="G369" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H369" s="17" t="s">
+      <c r="G369" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H369" s="15" t="s">
         <v>218</v>
       </c>
       <c r="I369" s="12" t="s">
@@ -23923,10 +23924,10 @@
       <c r="F370" s="11">
         <v>2013</v>
       </c>
-      <c r="G370" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H370" s="17" t="s">
+      <c r="G370" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H370" s="15" t="s">
         <v>221</v>
       </c>
       <c r="I370" s="12" t="s">
@@ -23973,10 +23974,10 @@
       <c r="F371" s="11">
         <v>2013</v>
       </c>
-      <c r="G371" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H371" s="17" t="s">
+      <c r="G371" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H371" s="15" t="s">
         <v>224</v>
       </c>
       <c r="I371" s="12" t="s">
@@ -24023,10 +24024,10 @@
       <c r="F372" s="11">
         <v>2013</v>
       </c>
-      <c r="G372" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H372" s="17" t="s">
+      <c r="G372" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H372" s="15" t="s">
         <v>228</v>
       </c>
       <c r="I372" s="12" t="s">
@@ -24073,10 +24074,10 @@
       <c r="F373" s="11">
         <v>2013</v>
       </c>
-      <c r="G373" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H373" s="17" t="s">
+      <c r="G373" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H373" s="15" t="s">
         <v>231</v>
       </c>
       <c r="I373" s="12" t="s">
@@ -24123,10 +24124,10 @@
       <c r="F374" s="11">
         <v>2013</v>
       </c>
-      <c r="G374" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H374" s="17" t="s">
+      <c r="G374" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H374" s="15" t="s">
         <v>234</v>
       </c>
       <c r="I374" s="12" t="s">
@@ -24173,10 +24174,10 @@
       <c r="F375" s="11">
         <v>2013</v>
       </c>
-      <c r="G375" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H375" s="17" t="s">
+      <c r="G375" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H375" s="15" t="s">
         <v>237</v>
       </c>
       <c r="I375" s="12" t="s">
@@ -24223,10 +24224,10 @@
       <c r="F376" s="11">
         <v>2013</v>
       </c>
-      <c r="G376" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H376" s="17" t="s">
+      <c r="G376" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H376" s="15" t="s">
         <v>241</v>
       </c>
       <c r="I376" s="12" t="s">
@@ -24273,10 +24274,10 @@
       <c r="F377" s="11">
         <v>2013</v>
       </c>
-      <c r="G377" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H377" s="17" t="s">
+      <c r="G377" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H377" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I377" s="12" t="s">
@@ -24323,10 +24324,10 @@
       <c r="F378" s="11">
         <v>2013</v>
       </c>
-      <c r="G378" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H378" s="17" t="s">
+      <c r="G378" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H378" s="15" t="s">
         <v>247</v>
       </c>
       <c r="I378" s="12" t="s">
@@ -24373,10 +24374,10 @@
       <c r="F379" s="11">
         <v>2013</v>
       </c>
-      <c r="G379" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H379" s="17" t="s">
+      <c r="G379" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H379" s="15" t="s">
         <v>250</v>
       </c>
       <c r="I379" s="12" t="s">
@@ -24423,10 +24424,10 @@
       <c r="F380" s="11">
         <v>2013</v>
       </c>
-      <c r="G380" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H380" s="17" t="s">
+      <c r="G380" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H380" s="15" t="s">
         <v>253</v>
       </c>
       <c r="I380" s="12" t="s">
@@ -24473,10 +24474,10 @@
       <c r="F381" s="11">
         <v>2013</v>
       </c>
-      <c r="G381" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H381" s="17" t="s">
+      <c r="G381" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H381" s="15" t="s">
         <v>256</v>
       </c>
       <c r="I381" s="12" t="s">
@@ -24523,10 +24524,10 @@
       <c r="F382" s="11">
         <v>2013</v>
       </c>
-      <c r="G382" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H382" s="17" t="s">
+      <c r="G382" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H382" s="15" t="s">
         <v>259</v>
       </c>
       <c r="I382" s="12" t="s">
@@ -24573,10 +24574,10 @@
       <c r="F383" s="11">
         <v>2013</v>
       </c>
-      <c r="G383" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H383" s="17" t="s">
+      <c r="G383" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H383" s="15" t="s">
         <v>263</v>
       </c>
       <c r="I383" s="12" t="s">
@@ -24623,10 +24624,10 @@
       <c r="F384" s="11">
         <v>2013</v>
       </c>
-      <c r="G384" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H384" s="17" t="s">
+      <c r="G384" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H384" s="15" t="s">
         <v>266</v>
       </c>
       <c r="I384" s="12" t="s">
@@ -24673,10 +24674,10 @@
       <c r="F385" s="11">
         <v>2013</v>
       </c>
-      <c r="G385" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H385" s="17" t="s">
+      <c r="G385" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H385" s="15" t="s">
         <v>269</v>
       </c>
       <c r="I385" s="12" t="s">
@@ -24723,10 +24724,10 @@
       <c r="F386" s="11">
         <v>2013</v>
       </c>
-      <c r="G386" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H386" s="17" t="s">
+      <c r="G386" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H386" s="15" t="s">
         <v>272</v>
       </c>
       <c r="I386" s="12" t="s">
@@ -24773,10 +24774,10 @@
       <c r="F387" s="11">
         <v>2013</v>
       </c>
-      <c r="G387" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H387" s="17" t="s">
+      <c r="G387" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H387" s="15" t="s">
         <v>276</v>
       </c>
       <c r="I387" s="12" t="s">
@@ -24823,10 +24824,10 @@
       <c r="F388" s="11">
         <v>2013</v>
       </c>
-      <c r="G388" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H388" s="17" t="s">
+      <c r="G388" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H388" s="15" t="s">
         <v>280</v>
       </c>
       <c r="I388" s="12" t="s">
@@ -24873,10 +24874,10 @@
       <c r="F389" s="11">
         <v>2013</v>
       </c>
-      <c r="G389" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H389" s="17" t="s">
+      <c r="G389" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H389" s="15" t="s">
         <v>283</v>
       </c>
       <c r="I389" s="12" t="s">
@@ -24923,10 +24924,10 @@
       <c r="F390" s="11">
         <v>2013</v>
       </c>
-      <c r="G390" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H390" s="17" t="s">
+      <c r="G390" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H390" s="15" t="s">
         <v>286</v>
       </c>
       <c r="I390" s="12" t="s">
@@ -24973,10 +24974,10 @@
       <c r="F391" s="11">
         <v>2013</v>
       </c>
-      <c r="G391" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H391" s="17" t="s">
+      <c r="G391" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H391" s="15" t="s">
         <v>289</v>
       </c>
       <c r="I391" s="12" t="s">
@@ -25023,10 +25024,10 @@
       <c r="F392" s="11">
         <v>2013</v>
       </c>
-      <c r="G392" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H392" s="17" t="s">
+      <c r="G392" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H392" s="15" t="s">
         <v>293</v>
       </c>
       <c r="I392" s="12" t="s">
@@ -25073,10 +25074,10 @@
       <c r="F393" s="11">
         <v>2013</v>
       </c>
-      <c r="G393" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H393" s="17" t="s">
+      <c r="G393" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H393" s="15" t="s">
         <v>298</v>
       </c>
       <c r="I393" s="12" t="s">
@@ -25123,10 +25124,10 @@
       <c r="F394" s="11">
         <v>2013</v>
       </c>
-      <c r="G394" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H394" s="17" t="s">
+      <c r="G394" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H394" s="15" t="s">
         <v>303</v>
       </c>
       <c r="I394" s="12" t="s">
@@ -25173,10 +25174,10 @@
       <c r="F395" s="11">
         <v>2013</v>
       </c>
-      <c r="G395" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H395" s="17" t="s">
+      <c r="G395" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H395" s="15" t="s">
         <v>308</v>
       </c>
       <c r="I395" s="12" t="s">
@@ -25223,10 +25224,10 @@
       <c r="F396" s="11">
         <v>2013</v>
       </c>
-      <c r="G396" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H396" s="17" t="s">
+      <c r="G396" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H396" s="15" t="s">
         <v>313</v>
       </c>
       <c r="I396" s="12" t="s">
@@ -25273,10 +25274,10 @@
       <c r="F397" s="11">
         <v>2013</v>
       </c>
-      <c r="G397" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H397" s="17" t="s">
+      <c r="G397" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H397" s="15" t="s">
         <v>318</v>
       </c>
       <c r="I397" s="12" t="s">
@@ -25323,10 +25324,10 @@
       <c r="F398" s="11">
         <v>2013</v>
       </c>
-      <c r="G398" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H398" s="17" t="s">
+      <c r="G398" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H398" s="15" t="s">
         <v>322</v>
       </c>
       <c r="I398" s="12" t="s">
@@ -25373,10 +25374,10 @@
       <c r="F399" s="11">
         <v>2013</v>
       </c>
-      <c r="G399" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H399" s="17" t="s">
+      <c r="G399" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H399" s="15" t="s">
         <v>326</v>
       </c>
       <c r="I399" s="12" t="s">
@@ -25423,10 +25424,10 @@
       <c r="F400" s="11">
         <v>2013</v>
       </c>
-      <c r="G400" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H400" s="17" t="s">
+      <c r="G400" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H400" s="15" t="s">
         <v>331</v>
       </c>
       <c r="I400" s="12" t="s">
@@ -25473,10 +25474,10 @@
       <c r="F401" s="11">
         <v>2013</v>
       </c>
-      <c r="G401" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H401" s="17" t="s">
+      <c r="G401" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H401" s="15" t="s">
         <v>336</v>
       </c>
       <c r="I401" s="12" t="s">
@@ -25523,10 +25524,10 @@
       <c r="F402" s="11">
         <v>2013</v>
       </c>
-      <c r="G402" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H402" s="17" t="s">
+      <c r="G402" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H402" s="15" t="s">
         <v>340</v>
       </c>
       <c r="I402" s="12" t="s">
@@ -25573,10 +25574,10 @@
       <c r="F403" s="11">
         <v>2013</v>
       </c>
-      <c r="G403" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H403" s="17" t="s">
+      <c r="G403" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H403" s="15" t="s">
         <v>344</v>
       </c>
       <c r="I403" s="12" t="s">
@@ -25623,10 +25624,10 @@
       <c r="F404" s="11">
         <v>2013</v>
       </c>
-      <c r="G404" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H404" s="17" t="s">
+      <c r="G404" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H404" s="15" t="s">
         <v>349</v>
       </c>
       <c r="I404" s="12" t="s">
@@ -25673,10 +25674,10 @@
       <c r="F405" s="11">
         <v>2013</v>
       </c>
-      <c r="G405" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H405" s="17" t="s">
+      <c r="G405" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H405" s="15" t="s">
         <v>353</v>
       </c>
       <c r="I405" s="12" t="s">
@@ -25723,10 +25724,10 @@
       <c r="F406" s="11">
         <v>2013</v>
       </c>
-      <c r="G406" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H406" s="17" t="s">
+      <c r="G406" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H406" s="15" t="s">
         <v>357</v>
       </c>
       <c r="I406" s="12" t="s">
@@ -25773,10 +25774,10 @@
       <c r="F407" s="11">
         <v>2013</v>
       </c>
-      <c r="G407" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H407" s="17" t="s">
+      <c r="G407" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H407" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I407" s="12" t="s">
@@ -25823,10 +25824,10 @@
       <c r="F408" s="11">
         <v>2013</v>
       </c>
-      <c r="G408" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H408" s="17" t="s">
+      <c r="G408" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H408" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I408" s="12" t="s">
@@ -25873,10 +25874,10 @@
       <c r="F409" s="11">
         <v>2013</v>
       </c>
-      <c r="G409" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H409" s="17" t="s">
+      <c r="G409" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H409" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I409" s="12" t="s">
@@ -25923,10 +25924,10 @@
       <c r="F410" s="11">
         <v>2013</v>
       </c>
-      <c r="G410" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H410" s="17" t="s">
+      <c r="G410" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H410" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I410" s="12" t="s">
@@ -25973,10 +25974,10 @@
       <c r="F411" s="11">
         <v>2013</v>
       </c>
-      <c r="G411" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H411" s="17" t="s">
+      <c r="G411" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H411" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I411" s="12" t="s">
@@ -26023,10 +26024,10 @@
       <c r="F412" s="11">
         <v>2013</v>
       </c>
-      <c r="G412" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H412" s="17" t="s">
+      <c r="G412" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H412" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I412" s="12" t="s">
@@ -26073,10 +26074,10 @@
       <c r="F413" s="11">
         <v>2013</v>
       </c>
-      <c r="G413" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H413" s="17" t="s">
+      <c r="G413" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H413" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I413" s="12" t="s">
@@ -26123,10 +26124,10 @@
       <c r="F414" s="11">
         <v>2013</v>
       </c>
-      <c r="G414" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H414" s="17" t="s">
+      <c r="G414" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H414" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I414" s="12" t="s">
@@ -26173,10 +26174,10 @@
       <c r="F415" s="11">
         <v>2013</v>
       </c>
-      <c r="G415" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H415" s="17" t="s">
+      <c r="G415" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H415" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I415" s="12" t="s">
@@ -26223,10 +26224,10 @@
       <c r="F416" s="11">
         <v>2013</v>
       </c>
-      <c r="G416" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H416" s="17" t="s">
+      <c r="G416" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H416" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I416" s="12" t="s">
@@ -26273,10 +26274,10 @@
       <c r="F417" s="11">
         <v>2013</v>
       </c>
-      <c r="G417" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H417" s="17" t="s">
+      <c r="G417" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H417" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I417" s="12" t="s">
@@ -26323,10 +26324,10 @@
       <c r="F418" s="11">
         <v>2013</v>
       </c>
-      <c r="G418" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H418" s="17" t="s">
+      <c r="G418" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H418" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I418" s="12" t="s">
@@ -26373,10 +26374,10 @@
       <c r="F419" s="11">
         <v>2013</v>
       </c>
-      <c r="G419" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H419" s="17" t="s">
+      <c r="G419" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H419" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I419" s="12" t="s">
@@ -26423,10 +26424,10 @@
       <c r="F420" s="11">
         <v>2013</v>
       </c>
-      <c r="G420" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H420" s="17" t="s">
+      <c r="G420" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H420" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I420" s="12" t="s">
@@ -26473,10 +26474,10 @@
       <c r="F421" s="11">
         <v>2013</v>
       </c>
-      <c r="G421" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H421" s="17" t="s">
+      <c r="G421" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H421" s="15" t="s">
         <v>403</v>
       </c>
       <c r="I421" s="12" t="s">
@@ -26523,10 +26524,10 @@
       <c r="F422" s="11">
         <v>2013</v>
       </c>
-      <c r="G422" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H422" s="17" t="s">
+      <c r="G422" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H422" s="15" t="s">
         <v>406</v>
       </c>
       <c r="I422" s="12" t="s">
@@ -26573,10 +26574,10 @@
       <c r="F423" s="11">
         <v>2013</v>
       </c>
-      <c r="G423" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H423" s="17" t="s">
+      <c r="G423" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H423" s="15" t="s">
         <v>410</v>
       </c>
       <c r="I423" s="12" t="s">
@@ -26623,10 +26624,10 @@
       <c r="F424" s="11">
         <v>2013</v>
       </c>
-      <c r="G424" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H424" s="17" t="s">
+      <c r="G424" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H424" s="15" t="s">
         <v>413</v>
       </c>
       <c r="I424" s="12" t="s">
@@ -26673,10 +26674,10 @@
       <c r="F425" s="11">
         <v>2013</v>
       </c>
-      <c r="G425" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H425" s="17" t="s">
+      <c r="G425" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H425" s="15" t="s">
         <v>417</v>
       </c>
       <c r="I425" s="12" t="s">
@@ -26723,10 +26724,10 @@
       <c r="F426" s="11">
         <v>2013</v>
       </c>
-      <c r="G426" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H426" s="17" t="s">
+      <c r="G426" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H426" s="15" t="s">
         <v>420</v>
       </c>
       <c r="I426" s="12" t="s">
@@ -26773,10 +26774,10 @@
       <c r="F427" s="11">
         <v>2013</v>
       </c>
-      <c r="G427" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H427" s="17" t="s">
+      <c r="G427" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H427" s="15" t="s">
         <v>423</v>
       </c>
       <c r="I427" s="12" t="s">
@@ -26823,10 +26824,10 @@
       <c r="F428" s="11">
         <v>2013</v>
       </c>
-      <c r="G428" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H428" s="17" t="s">
+      <c r="G428" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H428" s="15" t="s">
         <v>426</v>
       </c>
       <c r="I428" s="12" t="s">
@@ -26873,10 +26874,10 @@
       <c r="F429" s="11">
         <v>2013</v>
       </c>
-      <c r="G429" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H429" s="17" t="s">
+      <c r="G429" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H429" s="15" t="s">
         <v>429</v>
       </c>
       <c r="I429" s="12" t="s">
@@ -26923,10 +26924,10 @@
       <c r="F430" s="11">
         <v>2013</v>
       </c>
-      <c r="G430" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H430" s="17" t="s">
+      <c r="G430" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H430" s="15" t="s">
         <v>432</v>
       </c>
       <c r="I430" s="12" t="s">
@@ -26973,10 +26974,10 @@
       <c r="F431" s="11">
         <v>2013</v>
       </c>
-      <c r="G431" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H431" s="17" t="s">
+      <c r="G431" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H431" s="15" t="s">
         <v>436</v>
       </c>
       <c r="I431" s="12" t="s">
@@ -27023,10 +27024,10 @@
       <c r="F432" s="11">
         <v>2013</v>
       </c>
-      <c r="G432" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H432" s="17" t="s">
+      <c r="G432" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H432" s="15" t="s">
         <v>440</v>
       </c>
       <c r="I432" s="12" t="s">
@@ -27073,10 +27074,10 @@
       <c r="F433" s="11">
         <v>2013</v>
       </c>
-      <c r="G433" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H433" s="17" t="s">
+      <c r="G433" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H433" s="15" t="s">
         <v>443</v>
       </c>
       <c r="I433" s="12" t="s">
@@ -27123,10 +27124,10 @@
       <c r="F434" s="11">
         <v>2013</v>
       </c>
-      <c r="G434" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H434" s="17" t="s">
+      <c r="G434" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H434" s="15" t="s">
         <v>446</v>
       </c>
       <c r="I434" s="12" t="s">
@@ -27173,10 +27174,10 @@
       <c r="F435" s="11">
         <v>2013</v>
       </c>
-      <c r="G435" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H435" s="17" t="s">
+      <c r="G435" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H435" s="15" t="s">
         <v>449</v>
       </c>
       <c r="I435" s="12" t="s">
@@ -27223,10 +27224,10 @@
       <c r="F436" s="11">
         <v>2013</v>
       </c>
-      <c r="G436" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H436" s="17" t="s">
+      <c r="G436" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H436" s="15" t="s">
         <v>452</v>
       </c>
       <c r="I436" s="12" t="s">
@@ -27273,10 +27274,10 @@
       <c r="F437" s="11">
         <v>2013</v>
       </c>
-      <c r="G437" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H437" s="17" t="s">
+      <c r="G437" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H437" s="15" t="s">
         <v>455</v>
       </c>
       <c r="I437" s="12" t="s">
@@ -27323,10 +27324,10 @@
       <c r="F438" s="11">
         <v>2013</v>
       </c>
-      <c r="G438" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H438" s="17" t="s">
+      <c r="G438" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H438" s="15" t="s">
         <v>458</v>
       </c>
       <c r="I438" s="12" t="s">
@@ -27373,10 +27374,10 @@
       <c r="F439" s="11">
         <v>2013</v>
       </c>
-      <c r="G439" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H439" s="17" t="s">
+      <c r="G439" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H439" s="15" t="s">
         <v>461</v>
       </c>
       <c r="I439" s="12" t="s">
@@ -27423,10 +27424,10 @@
       <c r="F440" s="11">
         <v>2013</v>
       </c>
-      <c r="G440" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H440" s="17" t="s">
+      <c r="G440" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H440" s="15" t="s">
         <v>464</v>
       </c>
       <c r="I440" s="12" t="s">
@@ -27473,10 +27474,10 @@
       <c r="F441" s="11">
         <v>2013</v>
       </c>
-      <c r="G441" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H441" s="17" t="s">
+      <c r="G441" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H441" s="15" t="s">
         <v>468</v>
       </c>
       <c r="I441" s="12" t="s">
@@ -27523,10 +27524,10 @@
       <c r="F442" s="11">
         <v>2013</v>
       </c>
-      <c r="G442" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H442" s="17" t="s">
+      <c r="G442" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H442" s="15" t="s">
         <v>472</v>
       </c>
       <c r="I442" s="12" t="s">
@@ -27573,10 +27574,10 @@
       <c r="F443" s="11">
         <v>2013</v>
       </c>
-      <c r="G443" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H443" s="17" t="s">
+      <c r="G443" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H443" s="15" t="s">
         <v>475</v>
       </c>
       <c r="I443" s="12" t="s">
@@ -27623,10 +27624,10 @@
       <c r="F444" s="11">
         <v>2013</v>
       </c>
-      <c r="G444" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H444" s="17" t="s">
+      <c r="G444" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H444" s="15" t="s">
         <v>478</v>
       </c>
       <c r="I444" s="12" t="s">
@@ -27673,10 +27674,10 @@
       <c r="F445" s="11">
         <v>2013</v>
       </c>
-      <c r="G445" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H445" s="17" t="s">
+      <c r="G445" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H445" s="15" t="s">
         <v>481</v>
       </c>
       <c r="I445" s="12" t="s">
@@ -27723,10 +27724,10 @@
       <c r="F446" s="11">
         <v>2013</v>
       </c>
-      <c r="G446" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H446" s="17" t="s">
+      <c r="G446" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H446" s="15" t="s">
         <v>485</v>
       </c>
       <c r="I446" s="12" t="s">
@@ -27773,10 +27774,10 @@
       <c r="F447" s="11">
         <v>2013</v>
       </c>
-      <c r="G447" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H447" s="17" t="s">
+      <c r="G447" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H447" s="15" t="s">
         <v>488</v>
       </c>
       <c r="I447" s="12" t="s">
@@ -27823,10 +27824,10 @@
       <c r="F448" s="11">
         <v>2013</v>
       </c>
-      <c r="G448" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H448" s="17" t="s">
+      <c r="G448" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H448" s="15" t="s">
         <v>491</v>
       </c>
       <c r="I448" s="12" t="s">
@@ -27873,10 +27874,10 @@
       <c r="F449" s="11">
         <v>2013</v>
       </c>
-      <c r="G449" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H449" s="17" t="s">
+      <c r="G449" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H449" s="15" t="s">
         <v>494</v>
       </c>
       <c r="I449" s="12" t="s">
@@ -27923,10 +27924,10 @@
       <c r="F450" s="11">
         <v>2013</v>
       </c>
-      <c r="G450" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H450" s="17" t="s">
+      <c r="G450" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H450" s="15" t="s">
         <v>497</v>
       </c>
       <c r="I450" s="12" t="s">
@@ -27973,10 +27974,10 @@
       <c r="F451" s="11">
         <v>2013</v>
       </c>
-      <c r="G451" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H451" s="17" t="s">
+      <c r="G451" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H451" s="15" t="s">
         <v>500</v>
       </c>
       <c r="I451" s="12" t="s">
@@ -28023,10 +28024,10 @@
       <c r="F452" s="11">
         <v>2013</v>
       </c>
-      <c r="G452" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H452" s="17" t="s">
+      <c r="G452" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H452" s="15" t="s">
         <v>503</v>
       </c>
       <c r="I452" s="12" t="s">
@@ -28073,10 +28074,10 @@
       <c r="F453" s="11">
         <v>2013</v>
       </c>
-      <c r="G453" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H453" s="17" t="s">
+      <c r="G453" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H453" s="15" t="s">
         <v>506</v>
       </c>
       <c r="I453" s="12" t="s">
@@ -28123,10 +28124,10 @@
       <c r="F454" s="11">
         <v>2013</v>
       </c>
-      <c r="G454" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H454" s="17" t="s">
+      <c r="G454" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H454" s="15" t="s">
         <v>509</v>
       </c>
       <c r="I454" s="12" t="s">
@@ -28173,10 +28174,10 @@
       <c r="F455" s="11">
         <v>2013</v>
       </c>
-      <c r="G455" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H455" s="17" t="s">
+      <c r="G455" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H455" s="15" t="s">
         <v>512</v>
       </c>
       <c r="I455" s="12" t="s">
@@ -28223,10 +28224,10 @@
       <c r="F456" s="11">
         <v>2013</v>
       </c>
-      <c r="G456" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H456" s="17" t="s">
+      <c r="G456" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H456" s="15" t="s">
         <v>515</v>
       </c>
       <c r="I456" s="12" t="s">
@@ -28273,10 +28274,10 @@
       <c r="F457" s="11">
         <v>2013</v>
       </c>
-      <c r="G457" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H457" s="17" t="s">
+      <c r="G457" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H457" s="15" t="s">
         <v>518</v>
       </c>
       <c r="I457" s="12" t="s">
@@ -28323,10 +28324,10 @@
       <c r="F458" s="11">
         <v>2013</v>
       </c>
-      <c r="G458" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H458" s="17" t="s">
+      <c r="G458" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H458" s="15" t="s">
         <v>215</v>
       </c>
       <c r="I458" s="12" t="s">
@@ -28373,10 +28374,10 @@
       <c r="F459" s="11">
         <v>2013</v>
       </c>
-      <c r="G459" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H459" s="17" t="s">
+      <c r="G459" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H459" s="15" t="s">
         <v>524</v>
       </c>
       <c r="I459" s="12" t="s">
@@ -28423,10 +28424,10 @@
       <c r="F460" s="11">
         <v>2013</v>
       </c>
-      <c r="G460" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H460" s="17" t="s">
+      <c r="G460" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H460" s="15" t="s">
         <v>527</v>
       </c>
       <c r="I460" s="12" t="s">
@@ -28473,10 +28474,10 @@
       <c r="F461" s="11">
         <v>2013</v>
       </c>
-      <c r="G461" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H461" s="17" t="s">
+      <c r="G461" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H461" s="15" t="s">
         <v>530</v>
       </c>
       <c r="I461" s="12" t="s">
@@ -28523,10 +28524,10 @@
       <c r="F462" s="11">
         <v>2013</v>
       </c>
-      <c r="G462" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H462" s="17" t="s">
+      <c r="G462" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H462" s="15" t="s">
         <v>533</v>
       </c>
       <c r="I462" s="12" t="s">
@@ -28573,10 +28574,10 @@
       <c r="F463" s="11">
         <v>2013</v>
       </c>
-      <c r="G463" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H463" s="17" t="s">
+      <c r="G463" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H463" s="15" t="s">
         <v>536</v>
       </c>
       <c r="I463" s="12" t="s">
@@ -28623,10 +28624,10 @@
       <c r="F464" s="11">
         <v>2013</v>
       </c>
-      <c r="G464" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H464" s="17" t="s">
+      <c r="G464" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H464" s="15" t="s">
         <v>539</v>
       </c>
       <c r="I464" s="12" t="s">
@@ -28673,10 +28674,10 @@
       <c r="F465" s="11">
         <v>2013</v>
       </c>
-      <c r="G465" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H465" s="17" t="s">
+      <c r="G465" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H465" s="15" t="s">
         <v>542</v>
       </c>
       <c r="I465" s="12" t="s">
@@ -28723,10 +28724,10 @@
       <c r="F466" s="11">
         <v>2013</v>
       </c>
-      <c r="G466" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H466" s="17" t="s">
+      <c r="G466" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H466" s="15" t="s">
         <v>545</v>
       </c>
       <c r="I466" s="12" t="s">
@@ -28773,10 +28774,10 @@
       <c r="F467" s="11">
         <v>2013</v>
       </c>
-      <c r="G467" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H467" s="17" t="s">
+      <c r="G467" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H467" s="15" t="s">
         <v>548</v>
       </c>
       <c r="I467" s="12" t="s">
@@ -28823,10 +28824,10 @@
       <c r="F468" s="11">
         <v>2013</v>
       </c>
-      <c r="G468" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H468" s="17" t="s">
+      <c r="G468" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H468" s="15" t="s">
         <v>551</v>
       </c>
       <c r="I468" s="12" t="s">
@@ -28873,10 +28874,10 @@
       <c r="F469" s="11">
         <v>2013</v>
       </c>
-      <c r="G469" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H469" s="17" t="s">
+      <c r="G469" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H469" s="15" t="s">
         <v>554</v>
       </c>
       <c r="I469" s="12" t="s">
@@ -28923,10 +28924,10 @@
       <c r="F470" s="11">
         <v>2013</v>
       </c>
-      <c r="G470" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H470" s="17" t="s">
+      <c r="G470" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H470" s="15" t="s">
         <v>557</v>
       </c>
       <c r="I470" s="12" t="s">
@@ -28973,10 +28974,10 @@
       <c r="F471" s="11">
         <v>2013</v>
       </c>
-      <c r="G471" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H471" s="17" t="s">
+      <c r="G471" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H471" s="15" t="s">
         <v>560</v>
       </c>
       <c r="I471" s="12" t="s">
@@ -29023,10 +29024,10 @@
       <c r="F472" s="11">
         <v>2013</v>
       </c>
-      <c r="G472" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H472" s="17" t="s">
+      <c r="G472" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H472" s="15" t="s">
         <v>563</v>
       </c>
       <c r="I472" s="12" t="s">
@@ -29073,10 +29074,10 @@
       <c r="F473" s="11">
         <v>2013</v>
       </c>
-      <c r="G473" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H473" s="17" t="s">
+      <c r="G473" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H473" s="15" t="s">
         <v>566</v>
       </c>
       <c r="I473" s="12" t="s">
@@ -29123,10 +29124,10 @@
       <c r="F474" s="11">
         <v>2013</v>
       </c>
-      <c r="G474" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H474" s="17" t="s">
+      <c r="G474" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H474" s="15" t="s">
         <v>569</v>
       </c>
       <c r="I474" s="12" t="s">
@@ -29173,10 +29174,10 @@
       <c r="F475" s="11">
         <v>2013</v>
       </c>
-      <c r="G475" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H475" s="17" t="s">
+      <c r="G475" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H475" s="15" t="s">
         <v>572</v>
       </c>
       <c r="I475" s="12" t="s">
@@ -29223,10 +29224,10 @@
       <c r="F476" s="11">
         <v>2013</v>
       </c>
-      <c r="G476" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H476" s="17" t="s">
+      <c r="G476" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H476" s="15" t="s">
         <v>575</v>
       </c>
       <c r="I476" s="12" t="s">
@@ -29273,10 +29274,10 @@
       <c r="F477" s="11">
         <v>2013</v>
       </c>
-      <c r="G477" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H477" s="17" t="s">
+      <c r="G477" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H477" s="15" t="s">
         <v>578</v>
       </c>
       <c r="I477" s="12" t="s">
@@ -29323,10 +29324,10 @@
       <c r="F478" s="11">
         <v>2013</v>
       </c>
-      <c r="G478" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H478" s="17" t="s">
+      <c r="G478" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H478" s="15" t="s">
         <v>581</v>
       </c>
       <c r="I478" s="12" t="s">
@@ -29373,10 +29374,10 @@
       <c r="F479" s="11">
         <v>2013</v>
       </c>
-      <c r="G479" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H479" s="17" t="s">
+      <c r="G479" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H479" s="15" t="s">
         <v>584</v>
       </c>
       <c r="I479" s="12" t="s">
@@ -29423,10 +29424,10 @@
       <c r="F480" s="11">
         <v>2013</v>
       </c>
-      <c r="G480" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H480" s="17" t="s">
+      <c r="G480" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H480" s="15" t="s">
         <v>587</v>
       </c>
       <c r="I480" s="12" t="s">
@@ -29473,10 +29474,10 @@
       <c r="F481" s="11">
         <v>2013</v>
       </c>
-      <c r="G481" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H481" s="17" t="s">
+      <c r="G481" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H481" s="15" t="s">
         <v>591</v>
       </c>
       <c r="I481" s="12" t="s">
@@ -29523,10 +29524,10 @@
       <c r="F482" s="11">
         <v>2013</v>
       </c>
-      <c r="G482" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H482" s="17" t="s">
+      <c r="G482" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H482" s="15" t="s">
         <v>293</v>
       </c>
       <c r="I482" s="12" t="s">
@@ -29573,10 +29574,10 @@
       <c r="F483" s="11">
         <v>2013</v>
       </c>
-      <c r="G483" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H483" s="17" t="s">
+      <c r="G483" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H483" s="15" t="s">
         <v>298</v>
       </c>
       <c r="I483" s="12" t="s">
@@ -29623,10 +29624,10 @@
       <c r="F484" s="11">
         <v>2013</v>
       </c>
-      <c r="G484" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H484" s="17" t="s">
+      <c r="G484" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H484" s="15" t="s">
         <v>303</v>
       </c>
       <c r="I484" s="12" t="s">
@@ -29673,10 +29674,10 @@
       <c r="F485" s="11">
         <v>2013</v>
       </c>
-      <c r="G485" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H485" s="17" t="s">
+      <c r="G485" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H485" s="15" t="s">
         <v>308</v>
       </c>
       <c r="I485" s="12" t="s">
@@ -29723,10 +29724,10 @@
       <c r="F486" s="11">
         <v>2013</v>
       </c>
-      <c r="G486" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H486" s="17" t="s">
+      <c r="G486" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H486" s="15" t="s">
         <v>313</v>
       </c>
       <c r="I486" s="12" t="s">
@@ -29773,10 +29774,10 @@
       <c r="F487" s="11">
         <v>2013</v>
       </c>
-      <c r="G487" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H487" s="17" t="s">
+      <c r="G487" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H487" s="15" t="s">
         <v>318</v>
       </c>
       <c r="I487" s="12" t="s">
@@ -29823,10 +29824,10 @@
       <c r="F488" s="11">
         <v>2013</v>
       </c>
-      <c r="G488" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H488" s="17" t="s">
+      <c r="G488" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H488" s="15" t="s">
         <v>322</v>
       </c>
       <c r="I488" s="12" t="s">
@@ -29873,10 +29874,10 @@
       <c r="F489" s="11">
         <v>2013</v>
       </c>
-      <c r="G489" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H489" s="17" t="s">
+      <c r="G489" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H489" s="15" t="s">
         <v>326</v>
       </c>
       <c r="I489" s="12" t="s">
@@ -29923,10 +29924,10 @@
       <c r="F490" s="11">
         <v>2013</v>
       </c>
-      <c r="G490" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H490" s="17" t="s">
+      <c r="G490" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H490" s="15" t="s">
         <v>331</v>
       </c>
       <c r="I490" s="12" t="s">
@@ -29973,10 +29974,10 @@
       <c r="F491" s="11">
         <v>2013</v>
       </c>
-      <c r="G491" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H491" s="17" t="s">
+      <c r="G491" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H491" s="15" t="s">
         <v>336</v>
       </c>
       <c r="I491" s="12" t="s">
@@ -30023,10 +30024,10 @@
       <c r="F492" s="11">
         <v>2013</v>
       </c>
-      <c r="G492" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H492" s="17" t="s">
+      <c r="G492" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H492" s="15" t="s">
         <v>340</v>
       </c>
       <c r="I492" s="12" t="s">
@@ -30073,10 +30074,10 @@
       <c r="F493" s="11">
         <v>2013</v>
       </c>
-      <c r="G493" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H493" s="17" t="s">
+      <c r="G493" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H493" s="15" t="s">
         <v>344</v>
       </c>
       <c r="I493" s="12" t="s">
@@ -30123,10 +30124,10 @@
       <c r="F494" s="11">
         <v>2013</v>
       </c>
-      <c r="G494" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H494" s="17" t="s">
+      <c r="G494" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H494" s="15" t="s">
         <v>349</v>
       </c>
       <c r="I494" s="12" t="s">
@@ -30173,10 +30174,10 @@
       <c r="F495" s="11">
         <v>2013</v>
       </c>
-      <c r="G495" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H495" s="17" t="s">
+      <c r="G495" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H495" s="15" t="s">
         <v>620</v>
       </c>
       <c r="I495" s="12" t="s">
@@ -30223,10 +30224,10 @@
       <c r="F496" s="11">
         <v>2013</v>
       </c>
-      <c r="G496" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H496" s="17" t="s">
+      <c r="G496" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H496" s="15" t="s">
         <v>623</v>
       </c>
       <c r="I496" s="12" t="s">
@@ -30273,10 +30274,10 @@
       <c r="F497" s="11">
         <v>2013</v>
       </c>
-      <c r="G497" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H497" s="17" t="s">
+      <c r="G497" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H497" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I497" s="12" t="s">
@@ -30323,10 +30324,10 @@
       <c r="F498" s="11">
         <v>2013</v>
       </c>
-      <c r="G498" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H498" s="17" t="s">
+      <c r="G498" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H498" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I498" s="12" t="s">
@@ -30373,10 +30374,10 @@
       <c r="F499" s="11">
         <v>2013</v>
       </c>
-      <c r="G499" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H499" s="17" t="s">
+      <c r="G499" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H499" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I499" s="12" t="s">
@@ -30423,10 +30424,10 @@
       <c r="F500" s="11">
         <v>2013</v>
       </c>
-      <c r="G500" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H500" s="17" t="s">
+      <c r="G500" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H500" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I500" s="12" t="s">
@@ -30473,10 +30474,10 @@
       <c r="F501" s="11">
         <v>2013</v>
       </c>
-      <c r="G501" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H501" s="17" t="s">
+      <c r="G501" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H501" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I501" s="12" t="s">
@@ -30523,10 +30524,10 @@
       <c r="F502" s="11">
         <v>2013</v>
       </c>
-      <c r="G502" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H502" s="17" t="s">
+      <c r="G502" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H502" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I502" s="12" t="s">
@@ -30573,10 +30574,10 @@
       <c r="F503" s="11">
         <v>2013</v>
       </c>
-      <c r="G503" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H503" s="17" t="s">
+      <c r="G503" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H503" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I503" s="12" t="s">
@@ -30623,10 +30624,10 @@
       <c r="F504" s="11">
         <v>2013</v>
       </c>
-      <c r="G504" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H504" s="17" t="s">
+      <c r="G504" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H504" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I504" s="12" t="s">
@@ -30673,10 +30674,10 @@
       <c r="F505" s="11">
         <v>2013</v>
       </c>
-      <c r="G505" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H505" s="17" t="s">
+      <c r="G505" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H505" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I505" s="12" t="s">
@@ -30723,10 +30724,10 @@
       <c r="F506" s="11">
         <v>2013</v>
       </c>
-      <c r="G506" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H506" s="17" t="s">
+      <c r="G506" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H506" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I506" s="12" t="s">
@@ -30773,10 +30774,10 @@
       <c r="F507" s="11">
         <v>2013</v>
       </c>
-      <c r="G507" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H507" s="17" t="s">
+      <c r="G507" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H507" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I507" s="12" t="s">
@@ -30823,10 +30824,10 @@
       <c r="F508" s="11">
         <v>2013</v>
       </c>
-      <c r="G508" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H508" s="17" t="s">
+      <c r="G508" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H508" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I508" s="12" t="s">
@@ -30873,10 +30874,10 @@
       <c r="F509" s="11">
         <v>2013</v>
       </c>
-      <c r="G509" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H509" s="17" t="s">
+      <c r="G509" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H509" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I509" s="12" t="s">
@@ -30923,10 +30924,10 @@
       <c r="F510" s="11">
         <v>2013</v>
       </c>
-      <c r="G510" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H510" s="17" t="s">
+      <c r="G510" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H510" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I510" s="12" t="s">
@@ -30973,10 +30974,10 @@
       <c r="F511" s="11">
         <v>2013</v>
       </c>
-      <c r="G511" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H511" s="17" t="s">
+      <c r="G511" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H511" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I511" s="12" t="s">
@@ -31023,10 +31024,10 @@
       <c r="F512" s="11">
         <v>2013</v>
       </c>
-      <c r="G512" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H512" s="17" t="s">
+      <c r="G512" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H512" s="15" t="s">
         <v>954</v>
       </c>
       <c r="I512" s="12" t="s">
@@ -31073,10 +31074,10 @@
       <c r="F513" s="11">
         <v>2013</v>
       </c>
-      <c r="G513" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H513" s="17" t="s">
+      <c r="G513" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H513" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I513" s="12" t="s">
@@ -31123,10 +31124,10 @@
       <c r="F514" s="11">
         <v>2013</v>
       </c>
-      <c r="G514" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H514" s="17" t="s">
+      <c r="G514" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H514" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I514" s="12" t="s">
@@ -31173,10 +31174,10 @@
       <c r="F515" s="11">
         <v>2013</v>
       </c>
-      <c r="G515" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H515" s="17" t="s">
+      <c r="G515" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H515" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I515" s="12" t="s">
@@ -31223,10 +31224,10 @@
       <c r="F516" s="11">
         <v>2013</v>
       </c>
-      <c r="G516" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H516" s="17" t="s">
+      <c r="G516" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H516" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I516" s="12" t="s">
@@ -31273,10 +31274,10 @@
       <c r="F517" s="11">
         <v>2013</v>
       </c>
-      <c r="G517" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H517" s="17" t="s">
+      <c r="G517" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H517" s="15" t="s">
         <v>911</v>
       </c>
       <c r="I517" s="12" t="s">
@@ -31323,10 +31324,10 @@
       <c r="F518" s="11">
         <v>2013</v>
       </c>
-      <c r="G518" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H518" s="17" t="s">
+      <c r="G518" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H518" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I518" s="12" t="s">
@@ -31373,10 +31374,10 @@
       <c r="F519" s="11">
         <v>2013</v>
       </c>
-      <c r="G519" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H519" s="17" t="s">
+      <c r="G519" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H519" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I519" s="12" t="s">
@@ -31423,10 +31424,10 @@
       <c r="F520" s="11">
         <v>2013</v>
       </c>
-      <c r="G520" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H520" s="17" t="s">
+      <c r="G520" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H520" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I520" s="12" t="s">
@@ -31473,10 +31474,10 @@
       <c r="F521" s="11">
         <v>2013</v>
       </c>
-      <c r="G521" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H521" s="17" t="s">
+      <c r="G521" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H521" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I521" s="12" t="s">
@@ -31523,10 +31524,10 @@
       <c r="F522" s="11">
         <v>2013</v>
       </c>
-      <c r="G522" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H522" s="17" t="s">
+      <c r="G522" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H522" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I522" s="12" t="s">
@@ -31573,10 +31574,10 @@
       <c r="F523" s="11">
         <v>2013</v>
       </c>
-      <c r="G523" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H523" s="17" t="s">
+      <c r="G523" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H523" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I523" s="12" t="s">
@@ -31623,10 +31624,10 @@
       <c r="F524" s="11">
         <v>2013</v>
       </c>
-      <c r="G524" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H524" s="17" t="s">
+      <c r="G524" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H524" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I524" s="12" t="s">
@@ -31673,10 +31674,10 @@
       <c r="F525" s="11">
         <v>2013</v>
       </c>
-      <c r="G525" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H525" s="17" t="s">
+      <c r="G525" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H525" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I525" s="12" t="s">
@@ -31723,10 +31724,10 @@
       <c r="F526" s="11">
         <v>2013</v>
       </c>
-      <c r="G526" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H526" s="17" t="s">
+      <c r="G526" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H526" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I526" s="12" t="s">
@@ -31773,10 +31774,10 @@
       <c r="F527" s="11">
         <v>2013</v>
       </c>
-      <c r="G527" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H527" s="17" t="s">
+      <c r="G527" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H527" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I527" s="12" t="s">
@@ -31823,10 +31824,10 @@
       <c r="F528" s="11">
         <v>2013</v>
       </c>
-      <c r="G528" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H528" s="17" t="s">
+      <c r="G528" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H528" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I528" s="12" t="s">
@@ -31873,10 +31874,10 @@
       <c r="F529" s="11">
         <v>2013</v>
       </c>
-      <c r="G529" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H529" s="17" t="s">
+      <c r="G529" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H529" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I529" s="12" t="s">
@@ -31923,10 +31924,10 @@
       <c r="F530" s="11">
         <v>2013</v>
       </c>
-      <c r="G530" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H530" s="17" t="s">
+      <c r="G530" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H530" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I530" s="12" t="s">
@@ -31973,10 +31974,10 @@
       <c r="F531" s="11">
         <v>2013</v>
       </c>
-      <c r="G531" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H531" s="17" t="s">
+      <c r="G531" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H531" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I531" s="12" t="s">
@@ -32023,10 +32024,10 @@
       <c r="F532" s="11">
         <v>2013</v>
       </c>
-      <c r="G532" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H532" s="17" t="s">
+      <c r="G532" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H532" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I532" s="12" t="s">
@@ -32073,10 +32074,10 @@
       <c r="F533" s="11">
         <v>2013</v>
       </c>
-      <c r="G533" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H533" s="17" t="s">
+      <c r="G533" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H533" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I533" s="12" t="s">
@@ -32123,10 +32124,10 @@
       <c r="F534" s="11">
         <v>2013</v>
       </c>
-      <c r="G534" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H534" s="17" t="s">
+      <c r="G534" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H534" s="15" t="s">
         <v>954</v>
       </c>
       <c r="I534" s="12" t="s">
@@ -32173,10 +32174,10 @@
       <c r="F535" s="11">
         <v>2013</v>
       </c>
-      <c r="G535" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H535" s="17" t="s">
+      <c r="G535" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H535" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I535" s="12" t="s">
@@ -32223,10 +32224,10 @@
       <c r="F536" s="11">
         <v>2013</v>
       </c>
-      <c r="G536" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H536" s="17" t="s">
+      <c r="G536" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H536" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I536" s="12" t="s">
@@ -32273,10 +32274,10 @@
       <c r="F537" s="11">
         <v>2013</v>
       </c>
-      <c r="G537" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H537" s="17" t="s">
+      <c r="G537" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H537" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I537" s="12" t="s">
@@ -32323,10 +32324,10 @@
       <c r="F538" s="11">
         <v>2013</v>
       </c>
-      <c r="G538" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H538" s="17" t="s">
+      <c r="G538" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H538" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I538" s="12" t="s">
@@ -32373,10 +32374,10 @@
       <c r="F539" s="11">
         <v>2013</v>
       </c>
-      <c r="G539" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H539" s="17" t="s">
+      <c r="G539" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H539" s="15" t="s">
         <v>911</v>
       </c>
       <c r="I539" s="12" t="s">
@@ -32423,10 +32424,10 @@
       <c r="F540" s="11">
         <v>2013</v>
       </c>
-      <c r="G540" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H540" s="17" t="s">
+      <c r="G540" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H540" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I540" s="12" t="s">
@@ -32473,10 +32474,10 @@
       <c r="F541" s="11">
         <v>2013</v>
       </c>
-      <c r="G541" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H541" s="17" t="s">
+      <c r="G541" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H541" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I541" s="12" t="s">
@@ -32523,10 +32524,10 @@
       <c r="F542" s="11">
         <v>2013</v>
       </c>
-      <c r="G542" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H542" s="17" t="s">
+      <c r="G542" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H542" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I542" s="12" t="s">
@@ -32573,10 +32574,10 @@
       <c r="F543" s="11">
         <v>2013</v>
       </c>
-      <c r="G543" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H543" s="17" t="s">
+      <c r="G543" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H543" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I543" s="12" t="s">
@@ -32623,10 +32624,10 @@
       <c r="F544" s="11">
         <v>2013</v>
       </c>
-      <c r="G544" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H544" s="17" t="s">
+      <c r="G544" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H544" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I544" s="12" t="s">
@@ -32673,10 +32674,10 @@
       <c r="F545" s="11">
         <v>2013</v>
       </c>
-      <c r="G545" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H545" s="17" t="s">
+      <c r="G545" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H545" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I545" s="12" t="s">
@@ -32723,10 +32724,10 @@
       <c r="F546" s="11">
         <v>2013</v>
       </c>
-      <c r="G546" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H546" s="17" t="s">
+      <c r="G546" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H546" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I546" s="12" t="s">
@@ -32773,10 +32774,10 @@
       <c r="F547" s="11">
         <v>2013</v>
       </c>
-      <c r="G547" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H547" s="17" t="s">
+      <c r="G547" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H547" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I547" s="12" t="s">
@@ -32823,10 +32824,10 @@
       <c r="F548" s="11">
         <v>2013</v>
       </c>
-      <c r="G548" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H548" s="17" t="s">
+      <c r="G548" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H548" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I548" s="12" t="s">
@@ -32873,10 +32874,10 @@
       <c r="F549" s="11">
         <v>2013</v>
       </c>
-      <c r="G549" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H549" s="17" t="s">
+      <c r="G549" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H549" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I549" s="12" t="s">
@@ -32923,10 +32924,10 @@
       <c r="F550" s="11">
         <v>2013</v>
       </c>
-      <c r="G550" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H550" s="17" t="s">
+      <c r="G550" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H550" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I550" s="12" t="s">
@@ -32973,10 +32974,10 @@
       <c r="F551" s="11">
         <v>2013</v>
       </c>
-      <c r="G551" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H551" s="17" t="s">
+      <c r="G551" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H551" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I551" s="12" t="s">
@@ -33023,10 +33024,10 @@
       <c r="F552" s="11">
         <v>2013</v>
       </c>
-      <c r="G552" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H552" s="17" t="s">
+      <c r="G552" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H552" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I552" s="12" t="s">
@@ -33073,10 +33074,10 @@
       <c r="F553" s="11">
         <v>2013</v>
       </c>
-      <c r="G553" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H553" s="17" t="s">
+      <c r="G553" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H553" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I553" s="12" t="s">
@@ -33123,10 +33124,10 @@
       <c r="F554" s="11">
         <v>2013</v>
       </c>
-      <c r="G554" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H554" s="17" t="s">
+      <c r="G554" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H554" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I554" s="12" t="s">
@@ -33173,10 +33174,10 @@
       <c r="F555" s="11">
         <v>2013</v>
       </c>
-      <c r="G555" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H555" s="17" t="s">
+      <c r="G555" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H555" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I555" s="12" t="s">
@@ -33223,10 +33224,10 @@
       <c r="F556" s="11">
         <v>2013</v>
       </c>
-      <c r="G556" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H556" s="17" t="s">
+      <c r="G556" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H556" s="15" t="s">
         <v>954</v>
       </c>
       <c r="I556" s="12" t="s">
@@ -33273,10 +33274,10 @@
       <c r="F557" s="11">
         <v>2013</v>
       </c>
-      <c r="G557" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H557" s="17" t="s">
+      <c r="G557" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H557" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I557" s="12" t="s">
@@ -33323,10 +33324,10 @@
       <c r="F558" s="11">
         <v>2013</v>
       </c>
-      <c r="G558" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H558" s="17" t="s">
+      <c r="G558" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H558" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I558" s="12" t="s">
@@ -33373,10 +33374,10 @@
       <c r="F559" s="11">
         <v>2013</v>
       </c>
-      <c r="G559" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H559" s="17" t="s">
+      <c r="G559" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H559" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I559" s="12" t="s">
@@ -33423,10 +33424,10 @@
       <c r="F560" s="11">
         <v>2013</v>
       </c>
-      <c r="G560" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H560" s="17" t="s">
+      <c r="G560" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H560" s="15" t="s">
         <v>904</v>
       </c>
       <c r="I560" s="12" t="s">
@@ -33473,10 +33474,10 @@
       <c r="F561" s="11">
         <v>2013</v>
       </c>
-      <c r="G561" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H561" s="17" t="s">
+      <c r="G561" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H561" s="15" t="s">
         <v>911</v>
       </c>
       <c r="I561" s="12" t="s">
@@ -33523,10 +33524,10 @@
       <c r="F562" s="11">
         <v>2013</v>
       </c>
-      <c r="G562" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H562" s="17" t="s">
+      <c r="G562" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H562" s="15" t="s">
         <v>659</v>
       </c>
       <c r="I562" s="12" t="s">
@@ -33573,10 +33574,10 @@
       <c r="F563" s="11">
         <v>2013</v>
       </c>
-      <c r="G563" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H563" s="17" t="s">
+      <c r="G563" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H563" s="15" t="s">
         <v>681</v>
       </c>
       <c r="I563" s="12" t="s">
@@ -33623,10 +33624,10 @@
       <c r="F564" s="11">
         <v>2013</v>
       </c>
-      <c r="G564" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H564" s="17" t="s">
+      <c r="G564" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H564" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I564" s="12" t="s">
@@ -33673,10 +33674,10 @@
       <c r="F565" s="11">
         <v>2013</v>
       </c>
-      <c r="G565" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H565" s="17" t="s">
+      <c r="G565" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H565" s="15" t="s">
         <v>919</v>
       </c>
       <c r="I565" s="12" t="s">
@@ -33723,10 +33724,10 @@
       <c r="F566" s="11">
         <v>2013</v>
       </c>
-      <c r="G566" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H566" s="17" t="s">
+      <c r="G566" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H566" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I566" s="12" t="s">
@@ -33773,10 +33774,10 @@
       <c r="F567" s="11">
         <v>2013</v>
       </c>
-      <c r="G567" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H567" s="17" t="s">
+      <c r="G567" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H567" s="15" t="s">
         <v>927</v>
       </c>
       <c r="I567" s="12" t="s">
@@ -33823,10 +33824,10 @@
       <c r="F568" s="11">
         <v>2013</v>
       </c>
-      <c r="G568" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H568" s="17" t="s">
+      <c r="G568" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H568" s="15" t="s">
         <v>685</v>
       </c>
       <c r="I568" s="12" t="s">
@@ -33873,10 +33874,10 @@
       <c r="F569" s="11">
         <v>2013</v>
       </c>
-      <c r="G569" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H569" s="17" t="s">
+      <c r="G569" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H569" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I569" s="12" t="s">
@@ -33923,10 +33924,10 @@
       <c r="F570" s="11">
         <v>2013</v>
       </c>
-      <c r="G570" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H570" s="17" t="s">
+      <c r="G570" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H570" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I570" s="12" t="s">
@@ -33973,10 +33974,10 @@
       <c r="F571" s="11">
         <v>2013</v>
       </c>
-      <c r="G571" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H571" s="17" t="s">
+      <c r="G571" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H571" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I571" s="12" t="s">
@@ -34023,10 +34024,10 @@
       <c r="F572" s="11">
         <v>2013</v>
       </c>
-      <c r="G572" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H572" s="17" t="s">
+      <c r="G572" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H572" s="15" t="s">
         <v>701</v>
       </c>
       <c r="I572" s="12" t="s">
@@ -34073,10 +34074,10 @@
       <c r="F573" s="11">
         <v>2013</v>
       </c>
-      <c r="G573" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H573" s="17" t="s">
+      <c r="G573" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H573" s="15" t="s">
         <v>706</v>
       </c>
       <c r="I573" s="12" t="s">
@@ -34123,10 +34124,10 @@
       <c r="F574" s="11">
         <v>2013</v>
       </c>
-      <c r="G574" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H574" s="17" t="s">
+      <c r="G574" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H574" s="15" t="s">
         <v>711</v>
       </c>
       <c r="I574" s="12" t="s">
@@ -34173,10 +34174,10 @@
       <c r="F575" s="11">
         <v>2013</v>
       </c>
-      <c r="G575" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H575" s="17" t="s">
+      <c r="G575" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H575" s="15" t="s">
         <v>690</v>
       </c>
       <c r="I575" s="12" t="s">
@@ -34223,10 +34224,10 @@
       <c r="F576" s="11">
         <v>2013</v>
       </c>
-      <c r="G576" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H576" s="17" t="s">
+      <c r="G576" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H576" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I576" s="12" t="s">
@@ -34273,10 +34274,10 @@
       <c r="F577" s="11">
         <v>2013</v>
       </c>
-      <c r="G577" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H577" s="17" t="s">
+      <c r="G577" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H577" s="15" t="s">
         <v>718</v>
       </c>
       <c r="I577" s="12" t="s">
@@ -37256,6 +37257,7 @@
     </row>
     <row r="637" spans="1:16" ht="15"/>
   </sheetData>
+  <autoFilter ref="A1:P636" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>